--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\add-in-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03212FDA-B06F-4C29-BD6D-0883BBFC5288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E399FB5-0D9D-4E77-BBA7-E29B7E424236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="4" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr codeName="ЭтаКнига"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\add-in-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\dev.xlam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E399FB5-0D9D-4E77-BBA7-E29B7E424236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2C96B-7792-484E-AB66-9571B9E8841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PL" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
     <sheet name="PL Сокр (1)" sheetId="9" r:id="rId2"/>
     <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -1367,7 +1367,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1389,6 +1389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,7 +1428,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1480,10 +1486,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{6209055A-769B-44BD-B3E1-1FC7025223BD}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2 3" xfId="2" xr:uid="{6FFC2D92-5A8F-448E-BF28-3B2AE5FAB196}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1767,7 +1776,7 @@
   </sheetPr>
   <dimension ref="A1:O992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -8992,7 +9001,7 @@
   </sheetPr>
   <dimension ref="A1:O992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -9370,7 +9379,7 @@
         <v>229</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\dev.xlam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4515DECB-CFC6-48EE-9E86-04923A931F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C2440E-73D4-46EE-8775-8B5219AB885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="425">
   <si>
     <t>NO</t>
   </si>
@@ -1281,87 +1281,9 @@
     <t/>
   </si>
   <si>
-    <t>MAH</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>PIE</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>FBI</t>
-  </si>
-  <si>
-    <t>LMF</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>GAT</t>
-  </si>
-  <si>
-    <t>INA</t>
-  </si>
-  <si>
-    <t>TRW</t>
-  </si>
-  <si>
-    <t>GKN</t>
-  </si>
-  <si>
-    <t>SNR</t>
-  </si>
-  <si>
-    <t>RNZ</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>SKF</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>BRU</t>
-  </si>
-  <si>
-    <t>ELR</t>
-  </si>
-  <si>
-    <t>LUK</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>CRT</t>
-  </si>
-  <si>
-    <t>HEL</t>
-  </si>
-  <si>
-    <t>ACP451000S111</t>
-  </si>
-  <si>
     <t>No data found</t>
   </si>
   <si>
-    <t>MAHLE/KNECHT</t>
-  </si>
-  <si>
-    <t>https://dexup.ru/parts/MAHLE%2FKNECHT/ACP451000S111</t>
-  </si>
-  <si>
     <t>BOSCH</t>
   </si>
   <si>
@@ -1369,6 +1291,27 @@
   </si>
   <si>
     <t>https://dexup.ru/parts/BOSCH/025802700F</t>
+  </si>
+  <si>
+    <t>MAHLE</t>
+  </si>
+  <si>
+    <t>https://dexup.ru/parts/MAHLE/ACP451000S111</t>
+  </si>
+  <si>
+    <t>MAH ACP451000S111</t>
+  </si>
+  <si>
+    <t>BOS 0281006074</t>
+  </si>
+  <si>
+    <t>BOS 025802700F</t>
+  </si>
+  <si>
+    <t>MAL TANIMI</t>
+  </si>
+  <si>
+    <t>MAH ACP451000S</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1462,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1580,10 +1523,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,16 +1817,16 @@
   <sheetPr codeName="Лист2">
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:O992"/>
+  <dimension ref="A1:O778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="19" customWidth="1"/>
     <col min="4" max="4" width="31.109375" style="19" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
@@ -1927,14 +1875,14 @@
       <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1905,9 @@
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>423</v>
+      </c>
       <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
@@ -1996,17 +1946,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>414</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2022,17 +1966,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>415</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8">
@@ -2057,17 +1995,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>415</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2079,4800 +2011,928 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="11"/>
+      <c r="C14" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="11"/>
+      <c r="C15" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>19</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>21</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>22</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>24</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>26</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>27</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>28</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>29</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>30</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>31</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>32</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>33</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>34</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>35</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>36</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>37</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>38</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>39</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>40</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>41</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>42</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>43</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>44</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>45</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>46</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="11"/>
-    </row>
-    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>47</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>48</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>49</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>50</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>51</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>52</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="11"/>
-    </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>53</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="11"/>
-    </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>54</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="11"/>
-    </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>55</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="11"/>
-    </row>
-    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>56</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="11"/>
-    </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>57</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>58</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="11"/>
-    </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>59</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="11"/>
-    </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>60</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>61</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="11"/>
-    </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>62</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="11"/>
-    </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>63</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>64</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>65</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>66</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>67</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>68</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="11"/>
-    </row>
-    <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>69</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>70</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>71</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>72</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>73</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>74</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>75</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>76</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>77</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>78</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>79</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>80</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="11"/>
-    </row>
-    <row r="89" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>81</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>82</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="11"/>
-    </row>
-    <row r="91" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>83</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>84</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="11"/>
-    </row>
-    <row r="93" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>85</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="11"/>
-    </row>
-    <row r="94" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>86</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>87</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="11"/>
-    </row>
-    <row r="96" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>88</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="11"/>
-    </row>
-    <row r="97" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>89</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>90</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="11"/>
-    </row>
-    <row r="99" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>91</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="11"/>
-    </row>
-    <row r="100" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>92</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="11"/>
-    </row>
-    <row r="101" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>93</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="11"/>
-    </row>
-    <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>94</v>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="11"/>
-    </row>
-    <row r="103" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>95</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="11"/>
-    </row>
-    <row r="104" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>96</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="11"/>
-    </row>
-    <row r="105" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>97</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="11"/>
-    </row>
-    <row r="106" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>98</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="11"/>
-    </row>
-    <row r="107" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>99</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="11"/>
-    </row>
-    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>100</v>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="11"/>
-    </row>
-    <row r="109" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>101</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="11"/>
-    </row>
-    <row r="110" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>102</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="11"/>
-    </row>
-    <row r="111" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>103</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="11"/>
-    </row>
-    <row r="112" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>104</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="11"/>
-    </row>
-    <row r="113" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
-        <v>105</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="11"/>
-    </row>
-    <row r="114" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
-        <v>106</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="11"/>
-    </row>
-    <row r="115" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>107</v>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="11"/>
-    </row>
-    <row r="116" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>108</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="11"/>
-    </row>
-    <row r="117" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>109</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="11"/>
-    </row>
-    <row r="118" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <v>110</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="11"/>
-    </row>
-    <row r="119" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>111</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="11"/>
-    </row>
-    <row r="120" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <v>112</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="11"/>
-    </row>
-    <row r="121" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>113</v>
-      </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="11"/>
-    </row>
-    <row r="122" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <v>114</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="11"/>
-    </row>
-    <row r="123" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>115</v>
-      </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="11"/>
-    </row>
-    <row r="124" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <v>116</v>
-      </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="11"/>
-    </row>
-    <row r="125" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>117</v>
-      </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="11"/>
-    </row>
-    <row r="126" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>118</v>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="11"/>
-    </row>
-    <row r="127" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>119</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="11"/>
-    </row>
-    <row r="128" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>120</v>
-      </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="11"/>
-    </row>
-    <row r="129" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
-        <v>121</v>
-      </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="11"/>
-    </row>
-    <row r="130" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
-        <v>122</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="11"/>
-    </row>
-    <row r="131" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>123</v>
-      </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="11"/>
-    </row>
-    <row r="132" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>124</v>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="11"/>
-    </row>
-    <row r="133" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>125</v>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="11"/>
-    </row>
-    <row r="134" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>126</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="11"/>
-    </row>
-    <row r="135" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>127</v>
-      </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="11"/>
-    </row>
-    <row r="136" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>128</v>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="11"/>
-    </row>
-    <row r="137" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>129</v>
-      </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="11"/>
-    </row>
-    <row r="138" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>130</v>
-      </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="11"/>
-    </row>
-    <row r="139" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>131</v>
-      </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="11"/>
-    </row>
-    <row r="140" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>132</v>
-      </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="11"/>
-    </row>
-    <row r="141" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>133</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="11"/>
-    </row>
-    <row r="142" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>134</v>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="11"/>
-    </row>
-    <row r="143" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>135</v>
-      </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="11"/>
-    </row>
-    <row r="144" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>136</v>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="11"/>
-    </row>
-    <row r="145" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>137</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="11"/>
-    </row>
-    <row r="146" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>138</v>
-      </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="11"/>
-    </row>
-    <row r="147" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>139</v>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="11"/>
-    </row>
-    <row r="148" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>140</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="11"/>
-    </row>
-    <row r="149" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>141</v>
-      </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="11"/>
-    </row>
-    <row r="150" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
-        <v>142</v>
-      </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="11"/>
-    </row>
-    <row r="151" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>143</v>
-      </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="11"/>
-    </row>
-    <row r="152" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>144</v>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="11"/>
-    </row>
-    <row r="153" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>145</v>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="11"/>
-    </row>
-    <row r="154" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>146</v>
-      </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="11"/>
-    </row>
-    <row r="155" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>147</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="11"/>
-    </row>
-    <row r="156" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>148</v>
-      </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="11"/>
-    </row>
-    <row r="157" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>149</v>
-      </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="11"/>
-    </row>
-    <row r="158" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>150</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="11"/>
-    </row>
-    <row r="159" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>151</v>
-      </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="11"/>
-    </row>
-    <row r="160" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>152</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="11"/>
-    </row>
-    <row r="161" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>153</v>
-      </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="11"/>
-    </row>
-    <row r="162" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>154</v>
-      </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="11"/>
-    </row>
-    <row r="163" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
-        <v>155</v>
-      </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="11"/>
-    </row>
-    <row r="164" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
-        <v>156</v>
-      </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="11"/>
-    </row>
-    <row r="165" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
-        <v>157</v>
-      </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="11"/>
-    </row>
-    <row r="166" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
-        <v>158</v>
-      </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="11"/>
-    </row>
-    <row r="167" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
-        <v>159</v>
-      </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="11"/>
-    </row>
-    <row r="168" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>160</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="11"/>
-    </row>
-    <row r="169" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
-        <v>161</v>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="11"/>
-    </row>
-    <row r="170" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
-        <v>162</v>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="11"/>
-    </row>
-    <row r="171" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
-        <v>163</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="11"/>
-    </row>
-    <row r="172" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
-        <v>164</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="11"/>
-    </row>
-    <row r="173" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
-        <v>165</v>
-      </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
-      <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="11"/>
-    </row>
-    <row r="174" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
-        <v>166</v>
-      </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="11"/>
-    </row>
-    <row r="175" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
-        <v>167</v>
-      </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="11"/>
-    </row>
-    <row r="176" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
-        <v>168</v>
-      </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="11"/>
-    </row>
-    <row r="177" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
-        <v>169</v>
-      </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="11"/>
-    </row>
-    <row r="178" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
-        <v>170</v>
-      </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="11"/>
-    </row>
-    <row r="179" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
-        <v>171</v>
-      </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
-      <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="11"/>
-    </row>
-    <row r="180" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
-        <v>172</v>
-      </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="11"/>
-    </row>
-    <row r="181" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
-        <v>173</v>
-      </c>
-      <c r="B181" s="6"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="11"/>
-    </row>
-    <row r="182" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>174</v>
-      </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="11"/>
-    </row>
-    <row r="183" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
-        <v>175</v>
-      </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="11"/>
-    </row>
-    <row r="184" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
-        <v>176</v>
-      </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="11"/>
-    </row>
-    <row r="185" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
-        <v>177</v>
-      </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="11"/>
-    </row>
-    <row r="186" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
-        <v>178</v>
-      </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="11"/>
-    </row>
-    <row r="187" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
-        <v>179</v>
-      </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="11"/>
-    </row>
-    <row r="188" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
-        <v>180</v>
-      </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="11"/>
-    </row>
-    <row r="189" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
-        <v>181</v>
-      </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="11"/>
-    </row>
-    <row r="190" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
-        <v>182</v>
-      </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-      <c r="N190" s="11"/>
-    </row>
-    <row r="191" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
-        <v>183</v>
-      </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-      <c r="N191" s="11"/>
-    </row>
-    <row r="192" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
-        <v>184</v>
-      </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="11"/>
-    </row>
-    <row r="193" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
-        <v>185</v>
-      </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="8"/>
-      <c r="M193" s="8"/>
-      <c r="N193" s="11"/>
-    </row>
-    <row r="194" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
-        <v>186</v>
-      </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="11"/>
-    </row>
-    <row r="195" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
-        <v>187</v>
-      </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="11"/>
-    </row>
-    <row r="196" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
-        <v>188</v>
-      </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="11"/>
-    </row>
-    <row r="197" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
-        <v>189</v>
-      </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="11"/>
-    </row>
-    <row r="198" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
-        <v>190</v>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="11"/>
-    </row>
-    <row r="199" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
-        <v>191</v>
-      </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="11"/>
-    </row>
-    <row r="200" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
-        <v>192</v>
-      </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="11"/>
-    </row>
-    <row r="201" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
-        <v>193</v>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="11"/>
-    </row>
-    <row r="202" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
-        <v>194</v>
-      </c>
-      <c r="B202" s="6"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="8"/>
-      <c r="M202" s="8"/>
-      <c r="N202" s="11"/>
-    </row>
-    <row r="203" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
-        <v>195</v>
-      </c>
-      <c r="B203" s="6"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="11"/>
-    </row>
-    <row r="204" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
-        <v>196</v>
-      </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="8"/>
-      <c r="N204" s="11"/>
-    </row>
-    <row r="205" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
-        <v>197</v>
-      </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="11"/>
-    </row>
-    <row r="206" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
-        <v>198</v>
-      </c>
-      <c r="B206" s="6"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="8"/>
-      <c r="M206" s="8"/>
-      <c r="N206" s="11"/>
-    </row>
-    <row r="207" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
-        <v>199</v>
-      </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="8"/>
-      <c r="M207" s="8"/>
-      <c r="N207" s="11"/>
-    </row>
-    <row r="208" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
-        <v>200</v>
-      </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="8"/>
-      <c r="M208" s="8"/>
-      <c r="N208" s="11"/>
-    </row>
-    <row r="209" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
-        <v>201</v>
-      </c>
-      <c r="B209" s="6"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="11"/>
-    </row>
-    <row r="210" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
-        <v>202</v>
-      </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="11"/>
-    </row>
-    <row r="211" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
-        <v>203</v>
-      </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="11"/>
-    </row>
-    <row r="212" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
-        <v>204</v>
-      </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="11"/>
-    </row>
-    <row r="213" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
-        <v>205</v>
-      </c>
-      <c r="B213" s="6"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
-      <c r="M213" s="8"/>
-      <c r="N213" s="11"/>
-    </row>
-    <row r="214" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
-        <v>206</v>
-      </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
-      <c r="N214" s="11"/>
-    </row>
-    <row r="215" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
-        <v>207</v>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="8"/>
-      <c r="M215" s="8"/>
-      <c r="N215" s="11"/>
-    </row>
-    <row r="216" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>208</v>
-      </c>
-      <c r="B216" s="6"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-      <c r="K216" s="8"/>
-      <c r="L216" s="8"/>
-      <c r="M216" s="8"/>
-      <c r="N216" s="11"/>
-    </row>
-    <row r="217" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
-        <v>209</v>
-      </c>
-      <c r="B217" s="6"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="8"/>
-      <c r="M217" s="8"/>
-      <c r="N217" s="11"/>
-    </row>
-    <row r="218" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5">
-        <v>210</v>
-      </c>
-      <c r="B218" s="6"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="11"/>
-    </row>
-    <row r="219" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5">
-        <v>211</v>
-      </c>
-      <c r="B219" s="6"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="11"/>
-    </row>
-    <row r="220" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5">
-        <v>212</v>
-      </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
-      <c r="N220" s="11"/>
-    </row>
-    <row r="221" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5">
-        <v>213</v>
-      </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8"/>
-      <c r="M221" s="8"/>
-      <c r="N221" s="11"/>
-    </row>
-    <row r="222" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5">
-        <v>214</v>
-      </c>
-      <c r="B222" s="6"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="E222" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="11"/>
-    </row>
-    <row r="223" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5">
-        <v>215</v>
-      </c>
-      <c r="B223" s="6"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="11"/>
-    </row>
-    <row r="224" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5">
-        <v>216</v>
-      </c>
-      <c r="B224" s="6"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="E224" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
-      <c r="J224" s="8"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
-      <c r="N224" s="11"/>
-    </row>
-    <row r="225" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C225" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>413</v>
       </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+    </row>
+    <row r="186" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+    </row>
+    <row r="188" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+    </row>
+    <row r="196" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+    </row>
+    <row r="200" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+    </row>
+    <row r="201" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+    </row>
+    <row r="202" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+    </row>
+    <row r="203" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+    </row>
+    <row r="204" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+    </row>
+    <row r="205" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+    </row>
+    <row r="206" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+    </row>
+    <row r="207" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+    </row>
+    <row r="208" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+    </row>
+    <row r="209" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+    </row>
+    <row r="210" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+    </row>
+    <row r="211" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+    </row>
+    <row r="212" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+    </row>
+    <row r="213" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+    </row>
+    <row r="214" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+    </row>
+    <row r="215" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+    </row>
+    <row r="216" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+    </row>
+    <row r="217" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+    </row>
+    <row r="218" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+    </row>
+    <row r="219" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+    </row>
+    <row r="220" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+    </row>
+    <row r="221" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+    </row>
+    <row r="222" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+    </row>
+    <row r="223" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+    </row>
+    <row r="224" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+    </row>
+    <row r="225" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="14"/>
       <c r="D225" s="14"/>
-      <c r="H225" s="9">
-        <f>SUM(H9:H224)</f>
-        <v>0</v>
-      </c>
-      <c r="J225" s="9">
-        <f>SUM(J9:J224)</f>
-        <v>0</v>
-      </c>
-      <c r="K225" s="9">
-        <f>SUM(K9:K224)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C226" s="14" t="s">
-        <v>413</v>
-      </c>
+    </row>
+    <row r="226" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C226" s="14"/>
       <c r="D226" s="14"/>
     </row>
-    <row r="227" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C227" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="227" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C227" s="14"/>
       <c r="D227" s="14"/>
     </row>
-    <row r="228" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C228" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="228" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C228" s="14"/>
       <c r="D228" s="14"/>
     </row>
-    <row r="229" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C229" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="229" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C229" s="14"/>
       <c r="D229" s="14"/>
     </row>
-    <row r="230" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C230" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="230" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C230" s="14"/>
       <c r="D230" s="14"/>
     </row>
-    <row r="231" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C231" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="231" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="14"/>
       <c r="D231" s="14"/>
     </row>
-    <row r="232" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C232" s="14" t="s">
-        <v>413</v>
-      </c>
+    <row r="232" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C232" s="14"/>
       <c r="D232" s="14"/>
     </row>
-    <row r="233" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
     </row>
-    <row r="234" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
     </row>
-    <row r="235" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
     </row>
-    <row r="236" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
     </row>
-    <row r="237" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
     </row>
-    <row r="238" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
     </row>
-    <row r="239" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
     </row>
-    <row r="240" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
     </row>
@@ -9027,862 +5087,6 @@
     <row r="778" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C778" s="14"/>
       <c r="D778" s="14"/>
-    </row>
-    <row r="779" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C779" s="14"/>
-      <c r="D779" s="14"/>
-    </row>
-    <row r="780" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C780" s="14"/>
-      <c r="D780" s="14"/>
-    </row>
-    <row r="781" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C781" s="14"/>
-      <c r="D781" s="14"/>
-    </row>
-    <row r="782" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C782" s="14"/>
-      <c r="D782" s="14"/>
-    </row>
-    <row r="783" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C783" s="14"/>
-      <c r="D783" s="14"/>
-    </row>
-    <row r="784" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C784" s="14"/>
-      <c r="D784" s="14"/>
-    </row>
-    <row r="785" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C785" s="14"/>
-      <c r="D785" s="14"/>
-    </row>
-    <row r="786" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C786" s="14"/>
-      <c r="D786" s="14"/>
-    </row>
-    <row r="787" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C787" s="14"/>
-      <c r="D787" s="14"/>
-    </row>
-    <row r="788" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C788" s="14"/>
-      <c r="D788" s="14"/>
-    </row>
-    <row r="789" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C789" s="14"/>
-      <c r="D789" s="14"/>
-    </row>
-    <row r="790" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C790" s="14"/>
-      <c r="D790" s="14"/>
-    </row>
-    <row r="791" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C791" s="14"/>
-      <c r="D791" s="14"/>
-    </row>
-    <row r="792" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C792" s="14"/>
-      <c r="D792" s="14"/>
-    </row>
-    <row r="793" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C793" s="14"/>
-      <c r="D793" s="14"/>
-    </row>
-    <row r="794" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C794" s="14"/>
-      <c r="D794" s="14"/>
-    </row>
-    <row r="795" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C795" s="14"/>
-      <c r="D795" s="14"/>
-    </row>
-    <row r="796" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C796" s="14"/>
-      <c r="D796" s="14"/>
-    </row>
-    <row r="797" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C797" s="14"/>
-      <c r="D797" s="14"/>
-    </row>
-    <row r="798" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C798" s="14"/>
-      <c r="D798" s="14"/>
-    </row>
-    <row r="799" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C799" s="14"/>
-      <c r="D799" s="14"/>
-    </row>
-    <row r="800" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C800" s="14"/>
-      <c r="D800" s="14"/>
-    </row>
-    <row r="801" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C801" s="14"/>
-      <c r="D801" s="14"/>
-    </row>
-    <row r="802" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C802" s="14"/>
-      <c r="D802" s="14"/>
-    </row>
-    <row r="803" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C803" s="14"/>
-      <c r="D803" s="14"/>
-    </row>
-    <row r="804" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C804" s="14"/>
-      <c r="D804" s="14"/>
-    </row>
-    <row r="805" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C805" s="14"/>
-      <c r="D805" s="14"/>
-    </row>
-    <row r="806" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C806" s="14"/>
-      <c r="D806" s="14"/>
-    </row>
-    <row r="807" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C807" s="14"/>
-      <c r="D807" s="14"/>
-    </row>
-    <row r="808" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C808" s="14"/>
-      <c r="D808" s="14"/>
-    </row>
-    <row r="809" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C809" s="14"/>
-      <c r="D809" s="14"/>
-    </row>
-    <row r="810" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C810" s="14"/>
-      <c r="D810" s="14"/>
-    </row>
-    <row r="811" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C811" s="14"/>
-      <c r="D811" s="14"/>
-    </row>
-    <row r="812" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C812" s="14"/>
-      <c r="D812" s="14"/>
-    </row>
-    <row r="813" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C813" s="14"/>
-      <c r="D813" s="14"/>
-    </row>
-    <row r="814" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C814" s="14"/>
-      <c r="D814" s="14"/>
-    </row>
-    <row r="815" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C815" s="14"/>
-      <c r="D815" s="14"/>
-    </row>
-    <row r="816" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C816" s="14"/>
-      <c r="D816" s="14"/>
-    </row>
-    <row r="817" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C817" s="14"/>
-      <c r="D817" s="14"/>
-    </row>
-    <row r="818" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C818" s="14"/>
-      <c r="D818" s="14"/>
-    </row>
-    <row r="819" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C819" s="14"/>
-      <c r="D819" s="14"/>
-    </row>
-    <row r="820" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C820" s="14"/>
-      <c r="D820" s="14"/>
-    </row>
-    <row r="821" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C821" s="14"/>
-      <c r="D821" s="14"/>
-    </row>
-    <row r="822" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C822" s="14"/>
-      <c r="D822" s="14"/>
-    </row>
-    <row r="823" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C823" s="14"/>
-      <c r="D823" s="14"/>
-    </row>
-    <row r="824" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C824" s="14"/>
-      <c r="D824" s="14"/>
-    </row>
-    <row r="825" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C825" s="14"/>
-      <c r="D825" s="14"/>
-    </row>
-    <row r="826" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C826" s="14"/>
-      <c r="D826" s="14"/>
-    </row>
-    <row r="827" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C827" s="14"/>
-      <c r="D827" s="14"/>
-    </row>
-    <row r="828" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C828" s="14"/>
-      <c r="D828" s="14"/>
-    </row>
-    <row r="829" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C829" s="14"/>
-      <c r="D829" s="14"/>
-    </row>
-    <row r="830" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C830" s="14"/>
-      <c r="D830" s="14"/>
-    </row>
-    <row r="831" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C831" s="14"/>
-      <c r="D831" s="14"/>
-    </row>
-    <row r="832" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C832" s="14"/>
-      <c r="D832" s="14"/>
-    </row>
-    <row r="833" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C833" s="14"/>
-      <c r="D833" s="14"/>
-    </row>
-    <row r="834" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C834" s="14"/>
-      <c r="D834" s="14"/>
-    </row>
-    <row r="835" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C835" s="14"/>
-      <c r="D835" s="14"/>
-    </row>
-    <row r="836" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C836" s="14"/>
-      <c r="D836" s="14"/>
-    </row>
-    <row r="837" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C837" s="14"/>
-      <c r="D837" s="14"/>
-    </row>
-    <row r="838" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C838" s="14"/>
-      <c r="D838" s="14"/>
-    </row>
-    <row r="839" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C839" s="14"/>
-      <c r="D839" s="14"/>
-    </row>
-    <row r="840" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C840" s="14"/>
-      <c r="D840" s="14"/>
-    </row>
-    <row r="841" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C841" s="14"/>
-      <c r="D841" s="14"/>
-    </row>
-    <row r="842" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C842" s="14"/>
-      <c r="D842" s="14"/>
-    </row>
-    <row r="843" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C843" s="14"/>
-      <c r="D843" s="14"/>
-    </row>
-    <row r="844" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C844" s="14"/>
-      <c r="D844" s="14"/>
-    </row>
-    <row r="845" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C845" s="14"/>
-      <c r="D845" s="14"/>
-    </row>
-    <row r="846" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C846" s="14"/>
-      <c r="D846" s="14"/>
-    </row>
-    <row r="847" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C847" s="14"/>
-      <c r="D847" s="14"/>
-    </row>
-    <row r="848" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C848" s="14"/>
-      <c r="D848" s="14"/>
-    </row>
-    <row r="849" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C849" s="14"/>
-      <c r="D849" s="14"/>
-    </row>
-    <row r="850" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C850" s="14"/>
-      <c r="D850" s="14"/>
-    </row>
-    <row r="851" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C851" s="14"/>
-      <c r="D851" s="14"/>
-    </row>
-    <row r="852" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C852" s="14"/>
-      <c r="D852" s="14"/>
-    </row>
-    <row r="853" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C853" s="14"/>
-      <c r="D853" s="14"/>
-    </row>
-    <row r="854" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C854" s="14"/>
-      <c r="D854" s="14"/>
-    </row>
-    <row r="855" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C855" s="14"/>
-      <c r="D855" s="14"/>
-    </row>
-    <row r="856" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C856" s="14"/>
-      <c r="D856" s="14"/>
-    </row>
-    <row r="857" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C857" s="14"/>
-      <c r="D857" s="14"/>
-    </row>
-    <row r="858" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C858" s="14"/>
-      <c r="D858" s="14"/>
-    </row>
-    <row r="859" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C859" s="14"/>
-      <c r="D859" s="14"/>
-    </row>
-    <row r="860" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C860" s="14"/>
-      <c r="D860" s="14"/>
-    </row>
-    <row r="861" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C861" s="14"/>
-      <c r="D861" s="14"/>
-    </row>
-    <row r="862" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C862" s="14"/>
-      <c r="D862" s="14"/>
-    </row>
-    <row r="863" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C863" s="14"/>
-      <c r="D863" s="14"/>
-    </row>
-    <row r="864" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C864" s="14"/>
-      <c r="D864" s="14"/>
-    </row>
-    <row r="865" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C865" s="14"/>
-      <c r="D865" s="14"/>
-    </row>
-    <row r="866" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C866" s="14"/>
-      <c r="D866" s="14"/>
-    </row>
-    <row r="867" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C867" s="14"/>
-      <c r="D867" s="14"/>
-    </row>
-    <row r="868" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C868" s="14"/>
-      <c r="D868" s="14"/>
-    </row>
-    <row r="869" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C869" s="14"/>
-      <c r="D869" s="14"/>
-    </row>
-    <row r="870" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C870" s="14"/>
-      <c r="D870" s="14"/>
-    </row>
-    <row r="871" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C871" s="14"/>
-      <c r="D871" s="14"/>
-    </row>
-    <row r="872" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C872" s="14"/>
-      <c r="D872" s="14"/>
-    </row>
-    <row r="873" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C873" s="14"/>
-      <c r="D873" s="14"/>
-    </row>
-    <row r="874" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C874" s="14"/>
-      <c r="D874" s="14"/>
-    </row>
-    <row r="875" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C875" s="14"/>
-      <c r="D875" s="14"/>
-    </row>
-    <row r="876" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C876" s="14"/>
-      <c r="D876" s="14"/>
-    </row>
-    <row r="877" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C877" s="14"/>
-      <c r="D877" s="14"/>
-    </row>
-    <row r="878" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C878" s="14"/>
-      <c r="D878" s="14"/>
-    </row>
-    <row r="879" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C879" s="14"/>
-      <c r="D879" s="14"/>
-    </row>
-    <row r="880" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C880" s="14"/>
-      <c r="D880" s="14"/>
-    </row>
-    <row r="881" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C881" s="14"/>
-      <c r="D881" s="14"/>
-    </row>
-    <row r="882" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C882" s="14"/>
-      <c r="D882" s="14"/>
-    </row>
-    <row r="883" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C883" s="14"/>
-      <c r="D883" s="14"/>
-    </row>
-    <row r="884" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C884" s="14"/>
-      <c r="D884" s="14"/>
-    </row>
-    <row r="885" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C885" s="14"/>
-      <c r="D885" s="14"/>
-    </row>
-    <row r="886" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C886" s="14"/>
-      <c r="D886" s="14"/>
-    </row>
-    <row r="887" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C887" s="14"/>
-      <c r="D887" s="14"/>
-    </row>
-    <row r="888" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C888" s="14"/>
-      <c r="D888" s="14"/>
-    </row>
-    <row r="889" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C889" s="14"/>
-      <c r="D889" s="14"/>
-    </row>
-    <row r="890" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C890" s="14"/>
-      <c r="D890" s="14"/>
-    </row>
-    <row r="891" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C891" s="14"/>
-      <c r="D891" s="14"/>
-    </row>
-    <row r="892" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C892" s="14"/>
-      <c r="D892" s="14"/>
-    </row>
-    <row r="893" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C893" s="14"/>
-      <c r="D893" s="14"/>
-    </row>
-    <row r="894" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C894" s="14"/>
-      <c r="D894" s="14"/>
-    </row>
-    <row r="895" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C895" s="14"/>
-      <c r="D895" s="14"/>
-    </row>
-    <row r="896" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C896" s="14"/>
-      <c r="D896" s="14"/>
-    </row>
-    <row r="897" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C897" s="14"/>
-      <c r="D897" s="14"/>
-    </row>
-    <row r="898" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C898" s="14"/>
-      <c r="D898" s="14"/>
-    </row>
-    <row r="899" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C899" s="14"/>
-      <c r="D899" s="14"/>
-    </row>
-    <row r="900" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C900" s="14"/>
-      <c r="D900" s="14"/>
-    </row>
-    <row r="901" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C901" s="14"/>
-      <c r="D901" s="14"/>
-    </row>
-    <row r="902" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C902" s="14"/>
-      <c r="D902" s="14"/>
-    </row>
-    <row r="903" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C903" s="14"/>
-      <c r="D903" s="14"/>
-    </row>
-    <row r="904" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C904" s="14"/>
-      <c r="D904" s="14"/>
-    </row>
-    <row r="905" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C905" s="14"/>
-      <c r="D905" s="14"/>
-    </row>
-    <row r="906" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C906" s="14"/>
-      <c r="D906" s="14"/>
-    </row>
-    <row r="907" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C907" s="14"/>
-      <c r="D907" s="14"/>
-    </row>
-    <row r="908" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C908" s="14"/>
-      <c r="D908" s="14"/>
-    </row>
-    <row r="909" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C909" s="14"/>
-      <c r="D909" s="14"/>
-    </row>
-    <row r="910" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C910" s="14"/>
-      <c r="D910" s="14"/>
-    </row>
-    <row r="911" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C911" s="14"/>
-      <c r="D911" s="14"/>
-    </row>
-    <row r="912" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C912" s="14"/>
-      <c r="D912" s="14"/>
-    </row>
-    <row r="913" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C913" s="14"/>
-      <c r="D913" s="14"/>
-    </row>
-    <row r="914" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C914" s="14"/>
-      <c r="D914" s="14"/>
-    </row>
-    <row r="915" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C915" s="14"/>
-      <c r="D915" s="14"/>
-    </row>
-    <row r="916" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C916" s="14"/>
-      <c r="D916" s="14"/>
-    </row>
-    <row r="917" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C917" s="14"/>
-      <c r="D917" s="14"/>
-    </row>
-    <row r="918" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C918" s="14"/>
-      <c r="D918" s="14"/>
-    </row>
-    <row r="919" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C919" s="14"/>
-      <c r="D919" s="14"/>
-    </row>
-    <row r="920" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C920" s="14"/>
-      <c r="D920" s="14"/>
-    </row>
-    <row r="921" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C921" s="14"/>
-      <c r="D921" s="14"/>
-    </row>
-    <row r="922" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C922" s="14"/>
-      <c r="D922" s="14"/>
-    </row>
-    <row r="923" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C923" s="14"/>
-      <c r="D923" s="14"/>
-    </row>
-    <row r="924" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C924" s="14"/>
-      <c r="D924" s="14"/>
-    </row>
-    <row r="925" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C925" s="14"/>
-      <c r="D925" s="14"/>
-    </row>
-    <row r="926" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C926" s="14"/>
-      <c r="D926" s="14"/>
-    </row>
-    <row r="927" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C927" s="14"/>
-      <c r="D927" s="14"/>
-    </row>
-    <row r="928" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C928" s="14"/>
-      <c r="D928" s="14"/>
-    </row>
-    <row r="929" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C929" s="14"/>
-      <c r="D929" s="14"/>
-    </row>
-    <row r="930" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C930" s="14"/>
-      <c r="D930" s="14"/>
-    </row>
-    <row r="931" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C931" s="14"/>
-      <c r="D931" s="14"/>
-    </row>
-    <row r="932" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C932" s="14"/>
-      <c r="D932" s="14"/>
-    </row>
-    <row r="933" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C933" s="14"/>
-      <c r="D933" s="14"/>
-    </row>
-    <row r="934" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C934" s="14"/>
-      <c r="D934" s="14"/>
-    </row>
-    <row r="935" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C935" s="14"/>
-      <c r="D935" s="14"/>
-    </row>
-    <row r="936" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C936" s="14"/>
-      <c r="D936" s="14"/>
-    </row>
-    <row r="937" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C937" s="14"/>
-      <c r="D937" s="14"/>
-    </row>
-    <row r="938" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C938" s="14"/>
-      <c r="D938" s="14"/>
-    </row>
-    <row r="939" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C939" s="14"/>
-      <c r="D939" s="14"/>
-    </row>
-    <row r="940" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C940" s="14"/>
-      <c r="D940" s="14"/>
-    </row>
-    <row r="941" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C941" s="14"/>
-      <c r="D941" s="14"/>
-    </row>
-    <row r="942" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C942" s="14"/>
-      <c r="D942" s="14"/>
-    </row>
-    <row r="943" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C943" s="14"/>
-      <c r="D943" s="14"/>
-    </row>
-    <row r="944" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C944" s="14"/>
-      <c r="D944" s="14"/>
-    </row>
-    <row r="945" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C945" s="14"/>
-      <c r="D945" s="14"/>
-    </row>
-    <row r="946" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C946" s="14"/>
-      <c r="D946" s="14"/>
-    </row>
-    <row r="947" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C947" s="14"/>
-      <c r="D947" s="14"/>
-    </row>
-    <row r="948" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C948" s="14"/>
-      <c r="D948" s="14"/>
-    </row>
-    <row r="949" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C949" s="14"/>
-      <c r="D949" s="14"/>
-    </row>
-    <row r="950" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C950" s="14"/>
-      <c r="D950" s="14"/>
-    </row>
-    <row r="951" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C951" s="14"/>
-      <c r="D951" s="14"/>
-    </row>
-    <row r="952" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C952" s="14"/>
-      <c r="D952" s="14"/>
-    </row>
-    <row r="953" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C953" s="14"/>
-      <c r="D953" s="14"/>
-    </row>
-    <row r="954" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C954" s="14"/>
-      <c r="D954" s="14"/>
-    </row>
-    <row r="955" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C955" s="14"/>
-      <c r="D955" s="14"/>
-    </row>
-    <row r="956" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C956" s="14"/>
-      <c r="D956" s="14"/>
-    </row>
-    <row r="957" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C957" s="14"/>
-      <c r="D957" s="14"/>
-    </row>
-    <row r="958" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C958" s="14"/>
-      <c r="D958" s="14"/>
-    </row>
-    <row r="959" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C959" s="14"/>
-      <c r="D959" s="14"/>
-    </row>
-    <row r="960" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C960" s="14"/>
-      <c r="D960" s="14"/>
-    </row>
-    <row r="961" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C961" s="14"/>
-      <c r="D961" s="14"/>
-    </row>
-    <row r="962" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C962" s="14"/>
-      <c r="D962" s="14"/>
-    </row>
-    <row r="963" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C963" s="14"/>
-      <c r="D963" s="14"/>
-    </row>
-    <row r="964" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C964" s="14"/>
-      <c r="D964" s="14"/>
-    </row>
-    <row r="965" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C965" s="14"/>
-      <c r="D965" s="14"/>
-    </row>
-    <row r="966" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C966" s="14"/>
-      <c r="D966" s="14"/>
-    </row>
-    <row r="967" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C967" s="14"/>
-      <c r="D967" s="14"/>
-    </row>
-    <row r="968" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C968" s="14"/>
-      <c r="D968" s="14"/>
-    </row>
-    <row r="969" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C969" s="14"/>
-      <c r="D969" s="14"/>
-    </row>
-    <row r="970" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C970" s="14"/>
-      <c r="D970" s="14"/>
-    </row>
-    <row r="971" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C971" s="14"/>
-      <c r="D971" s="14"/>
-    </row>
-    <row r="972" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C972" s="14"/>
-      <c r="D972" s="14"/>
-    </row>
-    <row r="973" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C973" s="14"/>
-      <c r="D973" s="14"/>
-    </row>
-    <row r="974" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C974" s="14"/>
-      <c r="D974" s="14"/>
-    </row>
-    <row r="975" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C975" s="14"/>
-      <c r="D975" s="14"/>
-    </row>
-    <row r="976" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C976" s="14"/>
-      <c r="D976" s="14"/>
-    </row>
-    <row r="977" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C977" s="14"/>
-      <c r="D977" s="14"/>
-    </row>
-    <row r="978" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C978" s="14"/>
-      <c r="D978" s="14"/>
-    </row>
-    <row r="979" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C979" s="14"/>
-      <c r="D979" s="14"/>
-    </row>
-    <row r="980" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C980" s="14"/>
-      <c r="D980" s="14"/>
-    </row>
-    <row r="981" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C981" s="14"/>
-      <c r="D981" s="14"/>
-    </row>
-    <row r="982" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C982" s="14"/>
-      <c r="D982" s="14"/>
-    </row>
-    <row r="983" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C983" s="14"/>
-      <c r="D983" s="14"/>
-    </row>
-    <row r="984" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C984" s="14"/>
-      <c r="D984" s="14"/>
-    </row>
-    <row r="985" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C985" s="14"/>
-      <c r="D985" s="14"/>
-    </row>
-    <row r="986" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C986" s="14"/>
-      <c r="D986" s="14"/>
-    </row>
-    <row r="987" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C987" s="14"/>
-      <c r="D987" s="14"/>
-    </row>
-    <row r="988" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C988" s="14"/>
-      <c r="D988" s="14"/>
-    </row>
-    <row r="989" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C989" s="14"/>
-      <c r="D989" s="14"/>
-    </row>
-    <row r="990" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C990" s="14"/>
-      <c r="D990" s="14"/>
-    </row>
-    <row r="991" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C991" s="14"/>
-      <c r="D991" s="14"/>
-    </row>
-    <row r="992" spans="3:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C992" s="14"/>
-      <c r="D992" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9898,70 +5102,81 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="22" customWidth="1"/>
     <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" t="s">
         <v>414</v>
       </c>
-      <c r="C2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" t="s">
         <v>415</v>
       </c>
-      <c r="C3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="G10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" t="s">
         <v>415</v>
       </c>
-      <c r="C4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" t="s">
-        <v>443</v>
+      <c r="G11" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -10046,14 +5261,14 @@
       <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="7" t="s">
         <v>6</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\add-in-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my-AddIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE47B2F-94F4-42E6-910F-D7454F7D50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1BD136-2BC6-4C87-BC68-1DFFF330A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dursun" sheetId="14" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6201" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="1781">
   <si>
     <t>NO</t>
   </si>
@@ -5974,10 +5974,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6487,8 +6487,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7064,7 +7064,7 @@
   <dimension ref="A1:N773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10333,8 +10333,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:O778"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10459,9 +10459,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -10477,7 +10475,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -10485,9 +10483,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -27802,14 +27798,14 @@
       <c r="E7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="79"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="48" t="s">
         <v>6</v>
       </c>
@@ -32928,10 +32924,10 @@
       <c r="G128" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H128" s="80">
+      <c r="H128" s="79">
         <v>20</v>
       </c>
-      <c r="I128" s="80" t="s">
+      <c r="I128" s="79" t="s">
         <v>806</v>
       </c>
       <c r="J128" s="57">
@@ -33099,8 +33095,8 @@
       <c r="G129" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
+      <c r="H129" s="79"/>
+      <c r="I129" s="79"/>
       <c r="J129" s="57">
         <v>13</v>
       </c>
@@ -33266,8 +33262,8 @@
       <c r="G130" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
+      <c r="H130" s="79"/>
+      <c r="I130" s="79"/>
       <c r="J130" s="57">
         <v>0.66</v>
       </c>
@@ -33433,8 +33429,8 @@
       <c r="G131" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H131" s="80"/>
-      <c r="I131" s="80"/>
+      <c r="H131" s="79"/>
+      <c r="I131" s="79"/>
       <c r="J131" s="57">
         <v>0.52</v>
       </c>
@@ -33600,8 +33596,8 @@
       <c r="G132" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
+      <c r="H132" s="79"/>
+      <c r="I132" s="79"/>
       <c r="J132" s="57">
         <v>53</v>
       </c>
@@ -33767,8 +33763,8 @@
       <c r="G133" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H133" s="80"/>
-      <c r="I133" s="80"/>
+      <c r="H133" s="79"/>
+      <c r="I133" s="79"/>
       <c r="J133" s="57">
         <v>3.5</v>
       </c>
@@ -33934,8 +33930,8 @@
       <c r="G134" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H134" s="80"/>
-      <c r="I134" s="80"/>
+      <c r="H134" s="79"/>
+      <c r="I134" s="79"/>
       <c r="J134" s="57">
         <v>0.31</v>
       </c>
@@ -34101,8 +34097,8 @@
       <c r="G135" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H135" s="80"/>
-      <c r="I135" s="80"/>
+      <c r="H135" s="79"/>
+      <c r="I135" s="79"/>
       <c r="J135" s="57">
         <v>4</v>
       </c>
@@ -34268,8 +34264,8 @@
       <c r="G136" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H136" s="80"/>
-      <c r="I136" s="80"/>
+      <c r="H136" s="79"/>
+      <c r="I136" s="79"/>
       <c r="J136" s="57">
         <v>0.4</v>
       </c>
@@ -34435,8 +34431,8 @@
       <c r="G137" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
       <c r="J137" s="57">
         <v>1.17</v>
       </c>
@@ -34602,8 +34598,8 @@
       <c r="G138" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H138" s="80"/>
-      <c r="I138" s="80"/>
+      <c r="H138" s="79"/>
+      <c r="I138" s="79"/>
       <c r="J138" s="57">
         <v>0.14000000000000001</v>
       </c>
@@ -34769,8 +34765,8 @@
       <c r="G139" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H139" s="80"/>
-      <c r="I139" s="80"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79"/>
       <c r="J139" s="57">
         <v>0.06</v>
       </c>
@@ -34936,8 +34932,8 @@
       <c r="G140" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H140" s="80"/>
-      <c r="I140" s="80"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="79"/>
       <c r="J140" s="57">
         <v>0.18</v>
       </c>
@@ -35103,8 +35099,8 @@
       <c r="G141" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H141" s="80"/>
-      <c r="I141" s="80"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
       <c r="J141" s="57">
         <v>0.04</v>
       </c>
@@ -35270,8 +35266,8 @@
       <c r="G142" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H142" s="80"/>
-      <c r="I142" s="80"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
       <c r="J142" s="57">
         <v>25</v>
       </c>
@@ -35437,8 +35433,8 @@
       <c r="G143" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H143" s="80"/>
-      <c r="I143" s="80"/>
+      <c r="H143" s="79"/>
+      <c r="I143" s="79"/>
       <c r="J143" s="57">
         <v>0.18</v>
       </c>
@@ -35604,8 +35600,8 @@
       <c r="G144" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
       <c r="J144" s="57">
         <v>0.21</v>
       </c>
@@ -35771,8 +35767,8 @@
       <c r="G145" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H145" s="80"/>
-      <c r="I145" s="80"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
       <c r="J145" s="57">
         <v>0.15</v>
       </c>
@@ -35938,8 +35934,8 @@
       <c r="G146" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H146" s="80"/>
-      <c r="I146" s="80"/>
+      <c r="H146" s="79"/>
+      <c r="I146" s="79"/>
       <c r="J146" s="57">
         <v>0.34</v>
       </c>
@@ -36105,8 +36101,8 @@
       <c r="G147" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H147" s="80"/>
-      <c r="I147" s="80"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
       <c r="J147" s="57">
         <v>0.06</v>
       </c>
@@ -36272,8 +36268,8 @@
       <c r="G148" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H148" s="80"/>
-      <c r="I148" s="80"/>
+      <c r="H148" s="79"/>
+      <c r="I148" s="79"/>
       <c r="J148" s="57">
         <v>0.11</v>
       </c>
@@ -36439,8 +36435,8 @@
       <c r="G149" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H149" s="80"/>
-      <c r="I149" s="80"/>
+      <c r="H149" s="79"/>
+      <c r="I149" s="79"/>
       <c r="J149" s="57">
         <v>0.18</v>
       </c>
@@ -36606,8 +36602,8 @@
       <c r="G150" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H150" s="80"/>
-      <c r="I150" s="80"/>
+      <c r="H150" s="79"/>
+      <c r="I150" s="79"/>
       <c r="J150" s="57">
         <v>0.16</v>
       </c>
@@ -36773,8 +36769,8 @@
       <c r="G151" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H151" s="80"/>
-      <c r="I151" s="80"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
       <c r="J151" s="57">
         <v>3</v>
       </c>
@@ -36940,8 +36936,8 @@
       <c r="G152" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H152" s="80"/>
-      <c r="I152" s="80"/>
+      <c r="H152" s="79"/>
+      <c r="I152" s="79"/>
       <c r="J152" s="57">
         <v>0.08</v>
       </c>
@@ -37107,8 +37103,8 @@
       <c r="G153" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H153" s="80"/>
-      <c r="I153" s="80"/>
+      <c r="H153" s="79"/>
+      <c r="I153" s="79"/>
       <c r="J153" s="57">
         <v>0.4</v>
       </c>
@@ -37274,8 +37270,8 @@
       <c r="G154" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H154" s="80"/>
-      <c r="I154" s="80"/>
+      <c r="H154" s="79"/>
+      <c r="I154" s="79"/>
       <c r="J154" s="57">
         <v>1.6</v>
       </c>
@@ -37441,8 +37437,8 @@
       <c r="G155" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H155" s="80"/>
-      <c r="I155" s="80"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="79"/>
       <c r="J155" s="57">
         <v>2.1</v>
       </c>
@@ -37608,8 +37604,8 @@
       <c r="G156" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H156" s="80"/>
-      <c r="I156" s="80"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="79"/>
       <c r="J156" s="57">
         <v>0.2</v>
       </c>
@@ -37775,8 +37771,8 @@
       <c r="G157" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H157" s="80"/>
-      <c r="I157" s="80"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
       <c r="J157" s="57">
         <v>3</v>
       </c>
@@ -37942,8 +37938,8 @@
       <c r="G158" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H158" s="80"/>
-      <c r="I158" s="80"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="79"/>
       <c r="J158" s="57">
         <v>7</v>
       </c>
@@ -38109,8 +38105,8 @@
       <c r="G159" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H159" s="80"/>
-      <c r="I159" s="80"/>
+      <c r="H159" s="79"/>
+      <c r="I159" s="79"/>
       <c r="J159" s="57">
         <v>2.5</v>
       </c>
@@ -38276,8 +38272,8 @@
       <c r="G160" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H160" s="80"/>
-      <c r="I160" s="80"/>
+      <c r="H160" s="79"/>
+      <c r="I160" s="79"/>
       <c r="J160" s="57">
         <v>0.8</v>
       </c>
@@ -38443,8 +38439,8 @@
       <c r="G161" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H161" s="80"/>
-      <c r="I161" s="80"/>
+      <c r="H161" s="79"/>
+      <c r="I161" s="79"/>
       <c r="J161" s="57">
         <v>0.32</v>
       </c>
@@ -38610,8 +38606,8 @@
       <c r="G162" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H162" s="80"/>
-      <c r="I162" s="80"/>
+      <c r="H162" s="79"/>
+      <c r="I162" s="79"/>
       <c r="J162" s="57">
         <v>0.05</v>
       </c>
@@ -38777,8 +38773,8 @@
       <c r="G163" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H163" s="80"/>
-      <c r="I163" s="80"/>
+      <c r="H163" s="79"/>
+      <c r="I163" s="79"/>
       <c r="J163" s="57">
         <v>0.9</v>
       </c>
@@ -38944,8 +38940,8 @@
       <c r="G164" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H164" s="80"/>
-      <c r="I164" s="80"/>
+      <c r="H164" s="79"/>
+      <c r="I164" s="79"/>
       <c r="J164" s="57">
         <v>3.5</v>
       </c>
@@ -39111,8 +39107,8 @@
       <c r="G165" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H165" s="80"/>
-      <c r="I165" s="80"/>
+      <c r="H165" s="79"/>
+      <c r="I165" s="79"/>
       <c r="J165" s="57">
         <v>0.04</v>
       </c>
@@ -39278,8 +39274,8 @@
       <c r="G166" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H166" s="80"/>
-      <c r="I166" s="80"/>
+      <c r="H166" s="79"/>
+      <c r="I166" s="79"/>
       <c r="J166" s="57">
         <v>0.04</v>
       </c>
@@ -39445,8 +39441,8 @@
       <c r="G167" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H167" s="80"/>
-      <c r="I167" s="80"/>
+      <c r="H167" s="79"/>
+      <c r="I167" s="79"/>
       <c r="J167" s="57">
         <v>1.08</v>
       </c>
@@ -39612,8 +39608,8 @@
       <c r="G168" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H168" s="80"/>
-      <c r="I168" s="80"/>
+      <c r="H168" s="79"/>
+      <c r="I168" s="79"/>
       <c r="J168" s="57">
         <v>2</v>
       </c>
@@ -39779,8 +39775,8 @@
       <c r="G169" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H169" s="80"/>
-      <c r="I169" s="80"/>
+      <c r="H169" s="79"/>
+      <c r="I169" s="79"/>
       <c r="J169" s="57">
         <v>14</v>
       </c>
@@ -39946,8 +39942,8 @@
       <c r="G170" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H170" s="80"/>
-      <c r="I170" s="80"/>
+      <c r="H170" s="79"/>
+      <c r="I170" s="79"/>
       <c r="J170" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -40113,8 +40109,8 @@
       <c r="G171" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H171" s="80"/>
-      <c r="I171" s="80"/>
+      <c r="H171" s="79"/>
+      <c r="I171" s="79"/>
       <c r="J171" s="57">
         <v>0.02</v>
       </c>
@@ -40280,8 +40276,8 @@
       <c r="G172" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H172" s="80"/>
-      <c r="I172" s="80"/>
+      <c r="H172" s="79"/>
+      <c r="I172" s="79"/>
       <c r="J172" s="57">
         <v>0.02</v>
       </c>
@@ -40447,8 +40443,8 @@
       <c r="G173" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
+      <c r="H173" s="79"/>
+      <c r="I173" s="79"/>
       <c r="J173" s="57">
         <v>0.05</v>
       </c>
@@ -40614,8 +40610,8 @@
       <c r="G174" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H174" s="80"/>
-      <c r="I174" s="80"/>
+      <c r="H174" s="79"/>
+      <c r="I174" s="79"/>
       <c r="J174" s="57">
         <v>0.3</v>
       </c>
@@ -40781,8 +40777,8 @@
       <c r="G175" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H175" s="80"/>
-      <c r="I175" s="80"/>
+      <c r="H175" s="79"/>
+      <c r="I175" s="79"/>
       <c r="J175" s="57">
         <v>0.04</v>
       </c>
@@ -40948,8 +40944,8 @@
       <c r="G176" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H176" s="80"/>
-      <c r="I176" s="80"/>
+      <c r="H176" s="79"/>
+      <c r="I176" s="79"/>
       <c r="J176" s="57">
         <v>0.05</v>
       </c>
@@ -41115,8 +41111,8 @@
       <c r="G177" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H177" s="80"/>
-      <c r="I177" s="80"/>
+      <c r="H177" s="79"/>
+      <c r="I177" s="79"/>
       <c r="J177" s="57">
         <v>0.09</v>
       </c>
@@ -41282,8 +41278,8 @@
       <c r="G178" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H178" s="80"/>
-      <c r="I178" s="80"/>
+      <c r="H178" s="79"/>
+      <c r="I178" s="79"/>
       <c r="J178" s="57">
         <v>0.26</v>
       </c>
@@ -41449,8 +41445,8 @@
       <c r="G179" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H179" s="80"/>
-      <c r="I179" s="80"/>
+      <c r="H179" s="79"/>
+      <c r="I179" s="79"/>
       <c r="J179" s="57">
         <v>2.1</v>
       </c>
@@ -41616,8 +41612,8 @@
       <c r="G180" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H180" s="80"/>
-      <c r="I180" s="80"/>
+      <c r="H180" s="79"/>
+      <c r="I180" s="79"/>
       <c r="J180" s="57">
         <v>0.23</v>
       </c>
@@ -41783,8 +41779,8 @@
       <c r="G181" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H181" s="80"/>
-      <c r="I181" s="80"/>
+      <c r="H181" s="79"/>
+      <c r="I181" s="79"/>
       <c r="J181" s="57">
         <v>0.17</v>
       </c>
@@ -41950,8 +41946,8 @@
       <c r="G182" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H182" s="80"/>
-      <c r="I182" s="80"/>
+      <c r="H182" s="79"/>
+      <c r="I182" s="79"/>
       <c r="J182" s="57">
         <v>0.24</v>
       </c>
@@ -42117,8 +42113,8 @@
       <c r="G183" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H183" s="80"/>
-      <c r="I183" s="80"/>
+      <c r="H183" s="79"/>
+      <c r="I183" s="79"/>
       <c r="J183" s="57">
         <v>0.24</v>
       </c>
@@ -42284,8 +42280,8 @@
       <c r="G184" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
+      <c r="H184" s="79"/>
+      <c r="I184" s="79"/>
       <c r="J184" s="57">
         <v>0.48</v>
       </c>
@@ -42451,8 +42447,8 @@
       <c r="G185" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H185" s="80"/>
-      <c r="I185" s="80"/>
+      <c r="H185" s="79"/>
+      <c r="I185" s="79"/>
       <c r="J185" s="57">
         <v>0.27</v>
       </c>
@@ -42618,8 +42614,8 @@
       <c r="G186" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H186" s="80"/>
-      <c r="I186" s="80"/>
+      <c r="H186" s="79"/>
+      <c r="I186" s="79"/>
       <c r="J186" s="57">
         <v>0.68</v>
       </c>
@@ -42785,8 +42781,8 @@
       <c r="G187" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H187" s="80"/>
-      <c r="I187" s="80"/>
+      <c r="H187" s="79"/>
+      <c r="I187" s="79"/>
       <c r="J187" s="57">
         <v>2.5</v>
       </c>
@@ -42952,8 +42948,8 @@
       <c r="G188" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H188" s="80"/>
-      <c r="I188" s="80"/>
+      <c r="H188" s="79"/>
+      <c r="I188" s="79"/>
       <c r="J188" s="57">
         <v>0.18</v>
       </c>
@@ -43119,8 +43115,8 @@
       <c r="G189" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H189" s="80"/>
-      <c r="I189" s="80"/>
+      <c r="H189" s="79"/>
+      <c r="I189" s="79"/>
       <c r="J189" s="57">
         <v>0.08</v>
       </c>
@@ -43286,8 +43282,8 @@
       <c r="G190" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H190" s="80"/>
-      <c r="I190" s="80"/>
+      <c r="H190" s="79"/>
+      <c r="I190" s="79"/>
       <c r="J190" s="57">
         <v>0.3</v>
       </c>
@@ -43453,8 +43449,8 @@
       <c r="G191" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H191" s="80"/>
-      <c r="I191" s="80"/>
+      <c r="H191" s="79"/>
+      <c r="I191" s="79"/>
       <c r="J191" s="57">
         <v>0.75</v>
       </c>
@@ -43620,8 +43616,8 @@
       <c r="G192" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H192" s="80"/>
-      <c r="I192" s="80"/>
+      <c r="H192" s="79"/>
+      <c r="I192" s="79"/>
       <c r="J192" s="57">
         <v>0.1</v>
       </c>
@@ -43787,8 +43783,8 @@
       <c r="G193" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H193" s="80"/>
-      <c r="I193" s="80"/>
+      <c r="H193" s="79"/>
+      <c r="I193" s="79"/>
       <c r="J193" s="57">
         <v>0.06</v>
       </c>
@@ -43954,8 +43950,8 @@
       <c r="G194" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H194" s="80"/>
-      <c r="I194" s="80"/>
+      <c r="H194" s="79"/>
+      <c r="I194" s="79"/>
       <c r="J194" s="57">
         <v>0.1</v>
       </c>
@@ -44121,8 +44117,8 @@
       <c r="G195" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H195" s="80"/>
-      <c r="I195" s="80"/>
+      <c r="H195" s="79"/>
+      <c r="I195" s="79"/>
       <c r="J195" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -44288,8 +44284,8 @@
       <c r="G196" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H196" s="80"/>
-      <c r="I196" s="80"/>
+      <c r="H196" s="79"/>
+      <c r="I196" s="79"/>
       <c r="J196" s="57">
         <v>0.34</v>
       </c>
@@ -44455,8 +44451,8 @@
       <c r="G197" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H197" s="80"/>
-      <c r="I197" s="80"/>
+      <c r="H197" s="79"/>
+      <c r="I197" s="79"/>
       <c r="J197" s="57">
         <v>0.48</v>
       </c>
@@ -44622,8 +44618,8 @@
       <c r="G198" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H198" s="80"/>
-      <c r="I198" s="80"/>
+      <c r="H198" s="79"/>
+      <c r="I198" s="79"/>
       <c r="J198" s="57">
         <v>0.21</v>
       </c>
@@ -44789,8 +44785,8 @@
       <c r="G199" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H199" s="80"/>
-      <c r="I199" s="80"/>
+      <c r="H199" s="79"/>
+      <c r="I199" s="79"/>
       <c r="J199" s="57">
         <v>0.06</v>
       </c>
@@ -44956,8 +44952,8 @@
       <c r="G200" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H200" s="80"/>
-      <c r="I200" s="80"/>
+      <c r="H200" s="79"/>
+      <c r="I200" s="79"/>
       <c r="J200" s="57">
         <v>0.4</v>
       </c>
@@ -45123,8 +45119,8 @@
       <c r="G201" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H201" s="80"/>
-      <c r="I201" s="80"/>
+      <c r="H201" s="79"/>
+      <c r="I201" s="79"/>
       <c r="J201" s="57">
         <v>0.06</v>
       </c>
@@ -45290,8 +45286,8 @@
       <c r="G202" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H202" s="80"/>
-      <c r="I202" s="80"/>
+      <c r="H202" s="79"/>
+      <c r="I202" s="79"/>
       <c r="J202" s="57">
         <v>23</v>
       </c>
@@ -45457,8 +45453,8 @@
       <c r="G203" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H203" s="80"/>
-      <c r="I203" s="80"/>
+      <c r="H203" s="79"/>
+      <c r="I203" s="79"/>
       <c r="J203" s="57">
         <v>1.4</v>
       </c>
@@ -45624,8 +45620,8 @@
       <c r="G204" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H204" s="80"/>
-      <c r="I204" s="80"/>
+      <c r="H204" s="79"/>
+      <c r="I204" s="79"/>
       <c r="J204" s="57">
         <v>0.02</v>
       </c>
@@ -45791,8 +45787,8 @@
       <c r="G205" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H205" s="80"/>
-      <c r="I205" s="80"/>
+      <c r="H205" s="79"/>
+      <c r="I205" s="79"/>
       <c r="J205" s="57">
         <v>5.32</v>
       </c>
@@ -45958,8 +45954,8 @@
       <c r="G206" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H206" s="80"/>
-      <c r="I206" s="80"/>
+      <c r="H206" s="79"/>
+      <c r="I206" s="79"/>
       <c r="J206" s="57">
         <v>0.9</v>
       </c>
@@ -46125,8 +46121,8 @@
       <c r="G207" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H207" s="80"/>
-      <c r="I207" s="80"/>
+      <c r="H207" s="79"/>
+      <c r="I207" s="79"/>
       <c r="J207" s="57">
         <v>2.25</v>
       </c>
@@ -46292,8 +46288,8 @@
       <c r="G208" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H208" s="80"/>
-      <c r="I208" s="80"/>
+      <c r="H208" s="79"/>
+      <c r="I208" s="79"/>
       <c r="J208" s="57">
         <v>0.2</v>
       </c>
@@ -46459,8 +46455,8 @@
       <c r="G209" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H209" s="80"/>
-      <c r="I209" s="80"/>
+      <c r="H209" s="79"/>
+      <c r="I209" s="79"/>
       <c r="J209" s="57">
         <v>0.12</v>
       </c>
@@ -46626,8 +46622,8 @@
       <c r="G210" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H210" s="80"/>
-      <c r="I210" s="80"/>
+      <c r="H210" s="79"/>
+      <c r="I210" s="79"/>
       <c r="J210" s="57">
         <v>0.25</v>
       </c>
@@ -46793,8 +46789,8 @@
       <c r="G211" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H211" s="80"/>
-      <c r="I211" s="80"/>
+      <c r="H211" s="79"/>
+      <c r="I211" s="79"/>
       <c r="J211" s="57">
         <v>0.01</v>
       </c>
@@ -46960,8 +46956,8 @@
       <c r="G212" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H212" s="80"/>
-      <c r="I212" s="80"/>
+      <c r="H212" s="79"/>
+      <c r="I212" s="79"/>
       <c r="J212" s="57">
         <v>0.32</v>
       </c>
@@ -47127,8 +47123,8 @@
       <c r="G213" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H213" s="80"/>
-      <c r="I213" s="80"/>
+      <c r="H213" s="79"/>
+      <c r="I213" s="79"/>
       <c r="J213" s="57">
         <v>0.03</v>
       </c>
@@ -47294,8 +47290,8 @@
       <c r="G214" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H214" s="80"/>
-      <c r="I214" s="80"/>
+      <c r="H214" s="79"/>
+      <c r="I214" s="79"/>
       <c r="J214" s="57">
         <v>0.4</v>
       </c>
@@ -47461,8 +47457,8 @@
       <c r="G215" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H215" s="80"/>
-      <c r="I215" s="80"/>
+      <c r="H215" s="79"/>
+      <c r="I215" s="79"/>
       <c r="J215" s="57">
         <v>3.5</v>
       </c>
@@ -47628,8 +47624,8 @@
       <c r="G216" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H216" s="80"/>
-      <c r="I216" s="80"/>
+      <c r="H216" s="79"/>
+      <c r="I216" s="79"/>
       <c r="J216" s="57">
         <v>2.8</v>
       </c>
@@ -47795,8 +47791,8 @@
       <c r="G217" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H217" s="80"/>
-      <c r="I217" s="80"/>
+      <c r="H217" s="79"/>
+      <c r="I217" s="79"/>
       <c r="J217" s="57">
         <v>0.72</v>
       </c>
@@ -47962,8 +47958,8 @@
       <c r="G218" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H218" s="80"/>
-      <c r="I218" s="80"/>
+      <c r="H218" s="79"/>
+      <c r="I218" s="79"/>
       <c r="J218" s="57">
         <v>0.03</v>
       </c>
@@ -48129,8 +48125,8 @@
       <c r="G219" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H219" s="80"/>
-      <c r="I219" s="80"/>
+      <c r="H219" s="79"/>
+      <c r="I219" s="79"/>
       <c r="J219" s="57">
         <v>0.2</v>
       </c>
@@ -48296,8 +48292,8 @@
       <c r="G220" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H220" s="80"/>
-      <c r="I220" s="80"/>
+      <c r="H220" s="79"/>
+      <c r="I220" s="79"/>
       <c r="J220" s="57">
         <v>0.44</v>
       </c>
@@ -48463,8 +48459,8 @@
       <c r="G221" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H221" s="80"/>
-      <c r="I221" s="80"/>
+      <c r="H221" s="79"/>
+      <c r="I221" s="79"/>
       <c r="J221" s="57">
         <v>7</v>
       </c>
@@ -48630,8 +48626,8 @@
       <c r="G222" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H222" s="80"/>
-      <c r="I222" s="80"/>
+      <c r="H222" s="79"/>
+      <c r="I222" s="79"/>
       <c r="J222" s="57">
         <v>2.34</v>
       </c>
@@ -48797,8 +48793,8 @@
       <c r="G223" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H223" s="80"/>
-      <c r="I223" s="80"/>
+      <c r="H223" s="79"/>
+      <c r="I223" s="79"/>
       <c r="J223" s="57">
         <v>6</v>
       </c>
@@ -48964,8 +48960,8 @@
       <c r="G224" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H224" s="80"/>
-      <c r="I224" s="80"/>
+      <c r="H224" s="79"/>
+      <c r="I224" s="79"/>
       <c r="J224" s="57">
         <v>8</v>
       </c>
@@ -49131,8 +49127,8 @@
       <c r="G225" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H225" s="80"/>
-      <c r="I225" s="80"/>
+      <c r="H225" s="79"/>
+      <c r="I225" s="79"/>
       <c r="J225" s="57">
         <v>0.08</v>
       </c>
@@ -49298,8 +49294,8 @@
       <c r="G226" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H226" s="80"/>
-      <c r="I226" s="80"/>
+      <c r="H226" s="79"/>
+      <c r="I226" s="79"/>
       <c r="J226" s="57">
         <v>1.3</v>
       </c>
@@ -49465,8 +49461,8 @@
       <c r="G227" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H227" s="80"/>
-      <c r="I227" s="80"/>
+      <c r="H227" s="79"/>
+      <c r="I227" s="79"/>
       <c r="J227" s="57">
         <v>2.5</v>
       </c>
@@ -49632,8 +49628,8 @@
       <c r="G228" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H228" s="80"/>
-      <c r="I228" s="80"/>
+      <c r="H228" s="79"/>
+      <c r="I228" s="79"/>
       <c r="J228" s="57">
         <v>42</v>
       </c>
@@ -49799,8 +49795,8 @@
       <c r="G229" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H229" s="80"/>
-      <c r="I229" s="80"/>
+      <c r="H229" s="79"/>
+      <c r="I229" s="79"/>
       <c r="J229" s="57">
         <v>1.1000000000000001</v>
       </c>
@@ -49966,8 +49962,8 @@
       <c r="G230" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H230" s="80"/>
-      <c r="I230" s="80"/>
+      <c r="H230" s="79"/>
+      <c r="I230" s="79"/>
       <c r="J230" s="57">
         <v>1.6</v>
       </c>
@@ -50133,8 +50129,8 @@
       <c r="G231" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H231" s="80"/>
-      <c r="I231" s="80"/>
+      <c r="H231" s="79"/>
+      <c r="I231" s="79"/>
       <c r="J231" s="57">
         <v>60</v>
       </c>
@@ -50300,8 +50296,8 @@
       <c r="G232" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H232" s="80"/>
-      <c r="I232" s="80"/>
+      <c r="H232" s="79"/>
+      <c r="I232" s="79"/>
       <c r="J232" s="57">
         <v>2</v>
       </c>
@@ -50467,8 +50463,8 @@
       <c r="G233" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H233" s="80"/>
-      <c r="I233" s="80"/>
+      <c r="H233" s="79"/>
+      <c r="I233" s="79"/>
       <c r="J233" s="57">
         <v>1</v>
       </c>
@@ -50634,8 +50630,8 @@
       <c r="G234" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H234" s="80"/>
-      <c r="I234" s="80"/>
+      <c r="H234" s="79"/>
+      <c r="I234" s="79"/>
       <c r="J234" s="57">
         <v>0.24</v>
       </c>
@@ -50801,8 +50797,8 @@
       <c r="G235" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H235" s="80"/>
-      <c r="I235" s="80"/>
+      <c r="H235" s="79"/>
+      <c r="I235" s="79"/>
       <c r="J235" s="57">
         <v>1.35</v>
       </c>
@@ -50968,8 +50964,8 @@
       <c r="G236" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H236" s="80"/>
-      <c r="I236" s="80"/>
+      <c r="H236" s="79"/>
+      <c r="I236" s="79"/>
       <c r="J236" s="57">
         <v>0.3</v>
       </c>
@@ -51135,8 +51131,8 @@
       <c r="G237" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H237" s="80"/>
-      <c r="I237" s="80"/>
+      <c r="H237" s="79"/>
+      <c r="I237" s="79"/>
       <c r="J237" s="57">
         <v>1.1200000000000001</v>
       </c>
@@ -51302,8 +51298,8 @@
       <c r="G238" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H238" s="80"/>
-      <c r="I238" s="80"/>
+      <c r="H238" s="79"/>
+      <c r="I238" s="79"/>
       <c r="J238" s="57">
         <v>0.54</v>
       </c>
@@ -51469,8 +51465,8 @@
       <c r="G239" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H239" s="80"/>
-      <c r="I239" s="80"/>
+      <c r="H239" s="79"/>
+      <c r="I239" s="79"/>
       <c r="J239" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -51636,8 +51632,8 @@
       <c r="G240" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H240" s="80"/>
-      <c r="I240" s="80"/>
+      <c r="H240" s="79"/>
+      <c r="I240" s="79"/>
       <c r="J240" s="57">
         <v>1.3</v>
       </c>
@@ -51803,8 +51799,8 @@
       <c r="G241" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H241" s="80"/>
-      <c r="I241" s="80"/>
+      <c r="H241" s="79"/>
+      <c r="I241" s="79"/>
       <c r="J241" s="57">
         <v>0.06</v>
       </c>
@@ -51970,8 +51966,8 @@
       <c r="G242" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H242" s="80"/>
-      <c r="I242" s="80"/>
+      <c r="H242" s="79"/>
+      <c r="I242" s="79"/>
       <c r="J242" s="57">
         <v>0.06</v>
       </c>
@@ -52137,8 +52133,8 @@
       <c r="G243" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H243" s="80"/>
-      <c r="I243" s="80"/>
+      <c r="H243" s="79"/>
+      <c r="I243" s="79"/>
       <c r="J243" s="57">
         <v>0.52</v>
       </c>
@@ -52304,8 +52300,8 @@
       <c r="G244" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H244" s="80"/>
-      <c r="I244" s="80"/>
+      <c r="H244" s="79"/>
+      <c r="I244" s="79"/>
       <c r="J244" s="57">
         <v>0.05</v>
       </c>
@@ -52471,8 +52467,8 @@
       <c r="G245" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H245" s="80"/>
-      <c r="I245" s="80"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
       <c r="J245" s="57">
         <v>2</v>
       </c>
@@ -52638,8 +52634,8 @@
       <c r="G246" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H246" s="80"/>
-      <c r="I246" s="80"/>
+      <c r="H246" s="79"/>
+      <c r="I246" s="79"/>
       <c r="J246" s="57">
         <v>1</v>
       </c>
@@ -52805,8 +52801,8 @@
       <c r="G247" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H247" s="80"/>
-      <c r="I247" s="80"/>
+      <c r="H247" s="79"/>
+      <c r="I247" s="79"/>
       <c r="J247" s="57">
         <v>0.05</v>
       </c>
@@ -52972,8 +52968,8 @@
       <c r="G248" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H248" s="80"/>
-      <c r="I248" s="80"/>
+      <c r="H248" s="79"/>
+      <c r="I248" s="79"/>
       <c r="J248" s="57">
         <v>0.1</v>
       </c>
@@ -53139,8 +53135,8 @@
       <c r="G249" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H249" s="80"/>
-      <c r="I249" s="80"/>
+      <c r="H249" s="79"/>
+      <c r="I249" s="79"/>
       <c r="J249" s="57">
         <v>0.03</v>
       </c>
@@ -53179,8 +53175,8 @@
       <c r="G250" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H250" s="80"/>
-      <c r="I250" s="80"/>
+      <c r="H250" s="79"/>
+      <c r="I250" s="79"/>
       <c r="J250" s="57">
         <v>0.05</v>
       </c>
@@ -53219,8 +53215,8 @@
       <c r="G251" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H251" s="80"/>
-      <c r="I251" s="80"/>
+      <c r="H251" s="79"/>
+      <c r="I251" s="79"/>
       <c r="J251" s="57">
         <v>0.6</v>
       </c>
@@ -53259,8 +53255,8 @@
       <c r="G252" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H252" s="80"/>
-      <c r="I252" s="80"/>
+      <c r="H252" s="79"/>
+      <c r="I252" s="79"/>
       <c r="J252" s="57">
         <v>0.16</v>
       </c>
@@ -53299,8 +53295,8 @@
       <c r="G253" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H253" s="80"/>
-      <c r="I253" s="80"/>
+      <c r="H253" s="79"/>
+      <c r="I253" s="79"/>
       <c r="J253" s="57">
         <v>1.5</v>
       </c>
@@ -53339,8 +53335,8 @@
       <c r="G254" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H254" s="80"/>
-      <c r="I254" s="80"/>
+      <c r="H254" s="79"/>
+      <c r="I254" s="79"/>
       <c r="J254" s="57">
         <v>1</v>
       </c>
@@ -53379,8 +53375,8 @@
       <c r="G255" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H255" s="80"/>
-      <c r="I255" s="80"/>
+      <c r="H255" s="79"/>
+      <c r="I255" s="79"/>
       <c r="J255" s="57">
         <v>0.04</v>
       </c>
@@ -53419,8 +53415,8 @@
       <c r="G256" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H256" s="80"/>
-      <c r="I256" s="80"/>
+      <c r="H256" s="79"/>
+      <c r="I256" s="79"/>
       <c r="J256" s="57">
         <v>0.09</v>
       </c>
@@ -53459,8 +53455,8 @@
       <c r="G257" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H257" s="80"/>
-      <c r="I257" s="80"/>
+      <c r="H257" s="79"/>
+      <c r="I257" s="79"/>
       <c r="J257" s="57">
         <v>0.12</v>
       </c>
@@ -53499,8 +53495,8 @@
       <c r="G258" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H258" s="80"/>
-      <c r="I258" s="80"/>
+      <c r="H258" s="79"/>
+      <c r="I258" s="79"/>
       <c r="J258" s="57">
         <v>0.04</v>
       </c>
@@ -53539,8 +53535,8 @@
       <c r="G259" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H259" s="80"/>
-      <c r="I259" s="80"/>
+      <c r="H259" s="79"/>
+      <c r="I259" s="79"/>
       <c r="J259" s="57">
         <v>25</v>
       </c>
@@ -53579,8 +53575,8 @@
       <c r="G260" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H260" s="80"/>
-      <c r="I260" s="80"/>
+      <c r="H260" s="79"/>
+      <c r="I260" s="79"/>
       <c r="J260" s="57">
         <v>12</v>
       </c>
@@ -53619,8 +53615,8 @@
       <c r="G261" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H261" s="80"/>
-      <c r="I261" s="80"/>
+      <c r="H261" s="79"/>
+      <c r="I261" s="79"/>
       <c r="J261" s="57">
         <v>5.5</v>
       </c>
@@ -53659,8 +53655,8 @@
       <c r="G262" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H262" s="80"/>
-      <c r="I262" s="80"/>
+      <c r="H262" s="79"/>
+      <c r="I262" s="79"/>
       <c r="J262" s="57">
         <v>0.4</v>
       </c>
@@ -53699,8 +53695,8 @@
       <c r="G263" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H263" s="80"/>
-      <c r="I263" s="80"/>
+      <c r="H263" s="79"/>
+      <c r="I263" s="79"/>
       <c r="J263" s="57">
         <v>0.04</v>
       </c>
@@ -53739,8 +53735,8 @@
       <c r="G264" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H264" s="80"/>
-      <c r="I264" s="80"/>
+      <c r="H264" s="79"/>
+      <c r="I264" s="79"/>
       <c r="J264" s="57">
         <v>28</v>
       </c>
@@ -61751,10 +61747,10 @@
       <c r="G464" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H464" s="80">
+      <c r="H464" s="79">
         <v>1</v>
       </c>
-      <c r="I464" s="80" t="s">
+      <c r="I464" s="79" t="s">
         <v>1518</v>
       </c>
       <c r="J464" s="57">
@@ -61795,8 +61791,8 @@
       <c r="G465" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H465" s="80"/>
-      <c r="I465" s="80"/>
+      <c r="H465" s="79"/>
+      <c r="I465" s="79"/>
       <c r="J465" s="57">
         <v>0.36</v>
       </c>
@@ -61835,8 +61831,8 @@
       <c r="G466" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H466" s="80"/>
-      <c r="I466" s="80"/>
+      <c r="H466" s="79"/>
+      <c r="I466" s="79"/>
       <c r="J466" s="57">
         <v>0.35</v>
       </c>
@@ -61875,8 +61871,8 @@
       <c r="G467" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H467" s="80"/>
-      <c r="I467" s="80"/>
+      <c r="H467" s="79"/>
+      <c r="I467" s="79"/>
       <c r="J467" s="57">
         <v>0.34</v>
       </c>
@@ -61915,8 +61911,8 @@
       <c r="G468" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H468" s="80"/>
-      <c r="I468" s="80"/>
+      <c r="H468" s="79"/>
+      <c r="I468" s="79"/>
       <c r="J468" s="57">
         <v>2.29</v>
       </c>
@@ -61955,8 +61951,8 @@
       <c r="G469" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H469" s="80"/>
-      <c r="I469" s="80"/>
+      <c r="H469" s="79"/>
+      <c r="I469" s="79"/>
       <c r="J469" s="57">
         <v>1.28</v>
       </c>
@@ -61995,8 +61991,8 @@
       <c r="G470" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H470" s="80"/>
-      <c r="I470" s="80"/>
+      <c r="H470" s="79"/>
+      <c r="I470" s="79"/>
       <c r="J470" s="57">
         <v>2.83</v>
       </c>
@@ -62035,8 +62031,8 @@
       <c r="G471" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H471" s="80"/>
-      <c r="I471" s="80"/>
+      <c r="H471" s="79"/>
+      <c r="I471" s="79"/>
       <c r="J471" s="57">
         <v>19.46</v>
       </c>
@@ -62075,8 +62071,8 @@
       <c r="G472" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H472" s="80"/>
-      <c r="I472" s="80"/>
+      <c r="H472" s="79"/>
+      <c r="I472" s="79"/>
       <c r="J472" s="57">
         <v>0.09</v>
       </c>
@@ -62115,8 +62111,8 @@
       <c r="G473" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H473" s="80"/>
-      <c r="I473" s="80"/>
+      <c r="H473" s="79"/>
+      <c r="I473" s="79"/>
       <c r="J473" s="57">
         <v>11.14</v>
       </c>
@@ -62155,8 +62151,8 @@
       <c r="G474" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H474" s="80"/>
-      <c r="I474" s="80"/>
+      <c r="H474" s="79"/>
+      <c r="I474" s="79"/>
       <c r="J474" s="57">
         <v>4.04</v>
       </c>
@@ -62195,8 +62191,8 @@
       <c r="G475" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H475" s="80"/>
-      <c r="I475" s="80"/>
+      <c r="H475" s="79"/>
+      <c r="I475" s="79"/>
       <c r="J475" s="57">
         <v>0.24</v>
       </c>
@@ -62235,8 +62231,8 @@
       <c r="G476" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H476" s="80"/>
-      <c r="I476" s="80"/>
+      <c r="H476" s="79"/>
+      <c r="I476" s="79"/>
       <c r="J476" s="57">
         <v>0.36</v>
       </c>
@@ -62275,8 +62271,8 @@
       <c r="G477" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H477" s="80"/>
-      <c r="I477" s="80"/>
+      <c r="H477" s="79"/>
+      <c r="I477" s="79"/>
       <c r="J477" s="57">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -62315,8 +62311,8 @@
       <c r="G478" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H478" s="80"/>
-      <c r="I478" s="80"/>
+      <c r="H478" s="79"/>
+      <c r="I478" s="79"/>
       <c r="J478" s="57">
         <v>0.11</v>
       </c>
@@ -62355,8 +62351,8 @@
       <c r="G479" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H479" s="80"/>
-      <c r="I479" s="80"/>
+      <c r="H479" s="79"/>
+      <c r="I479" s="79"/>
       <c r="J479" s="57">
         <v>0.14000000000000001</v>
       </c>
@@ -62395,8 +62391,8 @@
       <c r="G480" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H480" s="80"/>
-      <c r="I480" s="80"/>
+      <c r="H480" s="79"/>
+      <c r="I480" s="79"/>
       <c r="J480" s="57">
         <v>0.39</v>
       </c>
@@ -62435,8 +62431,8 @@
       <c r="G481" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H481" s="80"/>
-      <c r="I481" s="80"/>
+      <c r="H481" s="79"/>
+      <c r="I481" s="79"/>
       <c r="J481" s="57">
         <v>0.17</v>
       </c>
@@ -62475,8 +62471,8 @@
       <c r="G482" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H482" s="80"/>
-      <c r="I482" s="80"/>
+      <c r="H482" s="79"/>
+      <c r="I482" s="79"/>
       <c r="J482" s="57">
         <v>0.39</v>
       </c>
@@ -62515,8 +62511,8 @@
       <c r="G483" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H483" s="80"/>
-      <c r="I483" s="80"/>
+      <c r="H483" s="79"/>
+      <c r="I483" s="79"/>
       <c r="J483" s="57">
         <v>0.28999999999999998</v>
       </c>
@@ -62555,8 +62551,8 @@
       <c r="G484" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H484" s="80"/>
-      <c r="I484" s="80"/>
+      <c r="H484" s="79"/>
+      <c r="I484" s="79"/>
       <c r="J484" s="57">
         <v>0.49</v>
       </c>
@@ -62595,8 +62591,8 @@
       <c r="G485" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H485" s="80"/>
-      <c r="I485" s="80"/>
+      <c r="H485" s="79"/>
+      <c r="I485" s="79"/>
       <c r="J485" s="57">
         <v>0.41</v>
       </c>
@@ -62635,8 +62631,8 @@
       <c r="G486" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H486" s="80"/>
-      <c r="I486" s="80"/>
+      <c r="H486" s="79"/>
+      <c r="I486" s="79"/>
       <c r="J486" s="57">
         <v>0.39</v>
       </c>
@@ -62675,8 +62671,8 @@
       <c r="G487" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H487" s="80"/>
-      <c r="I487" s="80"/>
+      <c r="H487" s="79"/>
+      <c r="I487" s="79"/>
       <c r="J487" s="57">
         <v>0.01</v>
       </c>
@@ -62715,8 +62711,8 @@
       <c r="G488" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H488" s="80"/>
-      <c r="I488" s="80"/>
+      <c r="H488" s="79"/>
+      <c r="I488" s="79"/>
       <c r="J488" s="57">
         <v>0.01</v>
       </c>
@@ -62755,8 +62751,8 @@
       <c r="G489" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H489" s="80"/>
-      <c r="I489" s="80"/>
+      <c r="H489" s="79"/>
+      <c r="I489" s="79"/>
       <c r="J489" s="57">
         <v>0.19</v>
       </c>
@@ -62795,8 +62791,8 @@
       <c r="G490" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H490" s="80"/>
-      <c r="I490" s="80"/>
+      <c r="H490" s="79"/>
+      <c r="I490" s="79"/>
       <c r="J490" s="57">
         <v>0.09</v>
       </c>
@@ -62835,8 +62831,8 @@
       <c r="G491" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H491" s="80"/>
-      <c r="I491" s="80"/>
+      <c r="H491" s="79"/>
+      <c r="I491" s="79"/>
       <c r="J491" s="57">
         <v>8.11</v>
       </c>
@@ -62875,8 +62871,8 @@
       <c r="G492" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H492" s="80"/>
-      <c r="I492" s="80"/>
+      <c r="H492" s="79"/>
+      <c r="I492" s="79"/>
       <c r="J492" s="57">
         <v>0.11</v>
       </c>
@@ -62915,8 +62911,8 @@
       <c r="G493" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H493" s="80"/>
-      <c r="I493" s="80"/>
+      <c r="H493" s="79"/>
+      <c r="I493" s="79"/>
       <c r="J493" s="57">
         <v>0.13</v>
       </c>
@@ -62955,8 +62951,8 @@
       <c r="G494" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H494" s="80"/>
-      <c r="I494" s="80"/>
+      <c r="H494" s="79"/>
+      <c r="I494" s="79"/>
       <c r="J494" s="57">
         <v>0.49</v>
       </c>
@@ -62995,8 +62991,8 @@
       <c r="G495" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H495" s="80"/>
-      <c r="I495" s="80"/>
+      <c r="H495" s="79"/>
+      <c r="I495" s="79"/>
       <c r="J495" s="57">
         <v>1.82</v>
       </c>
@@ -65297,6 +65293,30 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:H27"/>
+    <mergeCell ref="I9:I27"/>
+    <mergeCell ref="H28:H46"/>
+    <mergeCell ref="I28:I46"/>
+    <mergeCell ref="H47:H62"/>
+    <mergeCell ref="I47:I62"/>
+    <mergeCell ref="H63:H75"/>
+    <mergeCell ref="I63:I75"/>
+    <mergeCell ref="H76:H90"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="H91:H110"/>
+    <mergeCell ref="I91:I110"/>
+    <mergeCell ref="H111:H127"/>
+    <mergeCell ref="I111:I127"/>
+    <mergeCell ref="H128:H264"/>
+    <mergeCell ref="I128:I264"/>
+    <mergeCell ref="H265:H291"/>
+    <mergeCell ref="I265:I291"/>
+    <mergeCell ref="H292:H448"/>
+    <mergeCell ref="I292:I448"/>
+    <mergeCell ref="H449:H463"/>
+    <mergeCell ref="I449:I463"/>
     <mergeCell ref="H506:H508"/>
     <mergeCell ref="I506:I508"/>
     <mergeCell ref="H511:H551"/>
@@ -65307,30 +65327,6 @@
     <mergeCell ref="I500:I502"/>
     <mergeCell ref="H503:H505"/>
     <mergeCell ref="I503:I505"/>
-    <mergeCell ref="H265:H291"/>
-    <mergeCell ref="I265:I291"/>
-    <mergeCell ref="H292:H448"/>
-    <mergeCell ref="I292:I448"/>
-    <mergeCell ref="H449:H463"/>
-    <mergeCell ref="I449:I463"/>
-    <mergeCell ref="H91:H110"/>
-    <mergeCell ref="I91:I110"/>
-    <mergeCell ref="H111:H127"/>
-    <mergeCell ref="I111:I127"/>
-    <mergeCell ref="H128:H264"/>
-    <mergeCell ref="I128:I264"/>
-    <mergeCell ref="H47:H62"/>
-    <mergeCell ref="I47:I62"/>
-    <mergeCell ref="H63:H75"/>
-    <mergeCell ref="I63:I75"/>
-    <mergeCell ref="H76:H90"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:H27"/>
-    <mergeCell ref="I9:I27"/>
-    <mergeCell ref="H28:H46"/>
-    <mergeCell ref="I28:I46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O506" r:id="rId1" xr:uid="{3507F328-EB9F-4719-BF2C-5B53C15E8C9C}"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my-AddIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1BD136-2BC6-4C87-BC68-1DFFF330A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57224509-67CB-4B1C-82E9-C9DB728E7FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5974,10 +5974,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10334,7 +10334,7 @@
   <dimension ref="A1:O778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -27798,14 +27798,14 @@
       <c r="E7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="48" t="s">
         <v>6</v>
       </c>
@@ -32924,10 +32924,10 @@
       <c r="G128" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H128" s="79">
+      <c r="H128" s="80">
         <v>20</v>
       </c>
-      <c r="I128" s="79" t="s">
+      <c r="I128" s="80" t="s">
         <v>806</v>
       </c>
       <c r="J128" s="57">
@@ -33095,8 +33095,8 @@
       <c r="G129" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H129" s="79"/>
-      <c r="I129" s="79"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
       <c r="J129" s="57">
         <v>13</v>
       </c>
@@ -33262,8 +33262,8 @@
       <c r="G130" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H130" s="79"/>
-      <c r="I130" s="79"/>
+      <c r="H130" s="80"/>
+      <c r="I130" s="80"/>
       <c r="J130" s="57">
         <v>0.66</v>
       </c>
@@ -33429,8 +33429,8 @@
       <c r="G131" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H131" s="79"/>
-      <c r="I131" s="79"/>
+      <c r="H131" s="80"/>
+      <c r="I131" s="80"/>
       <c r="J131" s="57">
         <v>0.52</v>
       </c>
@@ -33596,8 +33596,8 @@
       <c r="G132" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H132" s="79"/>
-      <c r="I132" s="79"/>
+      <c r="H132" s="80"/>
+      <c r="I132" s="80"/>
       <c r="J132" s="57">
         <v>53</v>
       </c>
@@ -33763,8 +33763,8 @@
       <c r="G133" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H133" s="79"/>
-      <c r="I133" s="79"/>
+      <c r="H133" s="80"/>
+      <c r="I133" s="80"/>
       <c r="J133" s="57">
         <v>3.5</v>
       </c>
@@ -33930,8 +33930,8 @@
       <c r="G134" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H134" s="79"/>
-      <c r="I134" s="79"/>
+      <c r="H134" s="80"/>
+      <c r="I134" s="80"/>
       <c r="J134" s="57">
         <v>0.31</v>
       </c>
@@ -34097,8 +34097,8 @@
       <c r="G135" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
+      <c r="H135" s="80"/>
+      <c r="I135" s="80"/>
       <c r="J135" s="57">
         <v>4</v>
       </c>
@@ -34264,8 +34264,8 @@
       <c r="G136" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H136" s="79"/>
-      <c r="I136" s="79"/>
+      <c r="H136" s="80"/>
+      <c r="I136" s="80"/>
       <c r="J136" s="57">
         <v>0.4</v>
       </c>
@@ -34431,8 +34431,8 @@
       <c r="G137" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H137" s="79"/>
-      <c r="I137" s="79"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
       <c r="J137" s="57">
         <v>1.17</v>
       </c>
@@ -34598,8 +34598,8 @@
       <c r="G138" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H138" s="79"/>
-      <c r="I138" s="79"/>
+      <c r="H138" s="80"/>
+      <c r="I138" s="80"/>
       <c r="J138" s="57">
         <v>0.14000000000000001</v>
       </c>
@@ -34765,8 +34765,8 @@
       <c r="G139" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
+      <c r="H139" s="80"/>
+      <c r="I139" s="80"/>
       <c r="J139" s="57">
         <v>0.06</v>
       </c>
@@ -34932,8 +34932,8 @@
       <c r="G140" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H140" s="79"/>
-      <c r="I140" s="79"/>
+      <c r="H140" s="80"/>
+      <c r="I140" s="80"/>
       <c r="J140" s="57">
         <v>0.18</v>
       </c>
@@ -35099,8 +35099,8 @@
       <c r="G141" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H141" s="79"/>
-      <c r="I141" s="79"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="80"/>
       <c r="J141" s="57">
         <v>0.04</v>
       </c>
@@ -35266,8 +35266,8 @@
       <c r="G142" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H142" s="79"/>
-      <c r="I142" s="79"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
       <c r="J142" s="57">
         <v>25</v>
       </c>
@@ -35433,8 +35433,8 @@
       <c r="G143" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H143" s="79"/>
-      <c r="I143" s="79"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="80"/>
       <c r="J143" s="57">
         <v>0.18</v>
       </c>
@@ -35600,8 +35600,8 @@
       <c r="G144" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H144" s="79"/>
-      <c r="I144" s="79"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
       <c r="J144" s="57">
         <v>0.21</v>
       </c>
@@ -35767,8 +35767,8 @@
       <c r="G145" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H145" s="79"/>
-      <c r="I145" s="79"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
       <c r="J145" s="57">
         <v>0.15</v>
       </c>
@@ -35934,8 +35934,8 @@
       <c r="G146" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H146" s="79"/>
-      <c r="I146" s="79"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
       <c r="J146" s="57">
         <v>0.34</v>
       </c>
@@ -36101,8 +36101,8 @@
       <c r="G147" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H147" s="79"/>
-      <c r="I147" s="79"/>
+      <c r="H147" s="80"/>
+      <c r="I147" s="80"/>
       <c r="J147" s="57">
         <v>0.06</v>
       </c>
@@ -36268,8 +36268,8 @@
       <c r="G148" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H148" s="79"/>
-      <c r="I148" s="79"/>
+      <c r="H148" s="80"/>
+      <c r="I148" s="80"/>
       <c r="J148" s="57">
         <v>0.11</v>
       </c>
@@ -36435,8 +36435,8 @@
       <c r="G149" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H149" s="79"/>
-      <c r="I149" s="79"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
       <c r="J149" s="57">
         <v>0.18</v>
       </c>
@@ -36602,8 +36602,8 @@
       <c r="G150" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H150" s="79"/>
-      <c r="I150" s="79"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
       <c r="J150" s="57">
         <v>0.16</v>
       </c>
@@ -36769,8 +36769,8 @@
       <c r="G151" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H151" s="79"/>
-      <c r="I151" s="79"/>
+      <c r="H151" s="80"/>
+      <c r="I151" s="80"/>
       <c r="J151" s="57">
         <v>3</v>
       </c>
@@ -36936,8 +36936,8 @@
       <c r="G152" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H152" s="79"/>
-      <c r="I152" s="79"/>
+      <c r="H152" s="80"/>
+      <c r="I152" s="80"/>
       <c r="J152" s="57">
         <v>0.08</v>
       </c>
@@ -37103,8 +37103,8 @@
       <c r="G153" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79"/>
+      <c r="H153" s="80"/>
+      <c r="I153" s="80"/>
       <c r="J153" s="57">
         <v>0.4</v>
       </c>
@@ -37270,8 +37270,8 @@
       <c r="G154" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H154" s="79"/>
-      <c r="I154" s="79"/>
+      <c r="H154" s="80"/>
+      <c r="I154" s="80"/>
       <c r="J154" s="57">
         <v>1.6</v>
       </c>
@@ -37437,8 +37437,8 @@
       <c r="G155" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H155" s="79"/>
-      <c r="I155" s="79"/>
+      <c r="H155" s="80"/>
+      <c r="I155" s="80"/>
       <c r="J155" s="57">
         <v>2.1</v>
       </c>
@@ -37604,8 +37604,8 @@
       <c r="G156" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H156" s="79"/>
-      <c r="I156" s="79"/>
+      <c r="H156" s="80"/>
+      <c r="I156" s="80"/>
       <c r="J156" s="57">
         <v>0.2</v>
       </c>
@@ -37771,8 +37771,8 @@
       <c r="G157" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H157" s="79"/>
-      <c r="I157" s="79"/>
+      <c r="H157" s="80"/>
+      <c r="I157" s="80"/>
       <c r="J157" s="57">
         <v>3</v>
       </c>
@@ -37938,8 +37938,8 @@
       <c r="G158" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
+      <c r="H158" s="80"/>
+      <c r="I158" s="80"/>
       <c r="J158" s="57">
         <v>7</v>
       </c>
@@ -38105,8 +38105,8 @@
       <c r="G159" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H159" s="79"/>
-      <c r="I159" s="79"/>
+      <c r="H159" s="80"/>
+      <c r="I159" s="80"/>
       <c r="J159" s="57">
         <v>2.5</v>
       </c>
@@ -38272,8 +38272,8 @@
       <c r="G160" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H160" s="79"/>
-      <c r="I160" s="79"/>
+      <c r="H160" s="80"/>
+      <c r="I160" s="80"/>
       <c r="J160" s="57">
         <v>0.8</v>
       </c>
@@ -38439,8 +38439,8 @@
       <c r="G161" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H161" s="79"/>
-      <c r="I161" s="79"/>
+      <c r="H161" s="80"/>
+      <c r="I161" s="80"/>
       <c r="J161" s="57">
         <v>0.32</v>
       </c>
@@ -38606,8 +38606,8 @@
       <c r="G162" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H162" s="79"/>
-      <c r="I162" s="79"/>
+      <c r="H162" s="80"/>
+      <c r="I162" s="80"/>
       <c r="J162" s="57">
         <v>0.05</v>
       </c>
@@ -38773,8 +38773,8 @@
       <c r="G163" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H163" s="79"/>
-      <c r="I163" s="79"/>
+      <c r="H163" s="80"/>
+      <c r="I163" s="80"/>
       <c r="J163" s="57">
         <v>0.9</v>
       </c>
@@ -38940,8 +38940,8 @@
       <c r="G164" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H164" s="79"/>
-      <c r="I164" s="79"/>
+      <c r="H164" s="80"/>
+      <c r="I164" s="80"/>
       <c r="J164" s="57">
         <v>3.5</v>
       </c>
@@ -39107,8 +39107,8 @@
       <c r="G165" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H165" s="79"/>
-      <c r="I165" s="79"/>
+      <c r="H165" s="80"/>
+      <c r="I165" s="80"/>
       <c r="J165" s="57">
         <v>0.04</v>
       </c>
@@ -39274,8 +39274,8 @@
       <c r="G166" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H166" s="79"/>
-      <c r="I166" s="79"/>
+      <c r="H166" s="80"/>
+      <c r="I166" s="80"/>
       <c r="J166" s="57">
         <v>0.04</v>
       </c>
@@ -39441,8 +39441,8 @@
       <c r="G167" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H167" s="79"/>
-      <c r="I167" s="79"/>
+      <c r="H167" s="80"/>
+      <c r="I167" s="80"/>
       <c r="J167" s="57">
         <v>1.08</v>
       </c>
@@ -39608,8 +39608,8 @@
       <c r="G168" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H168" s="79"/>
-      <c r="I168" s="79"/>
+      <c r="H168" s="80"/>
+      <c r="I168" s="80"/>
       <c r="J168" s="57">
         <v>2</v>
       </c>
@@ -39775,8 +39775,8 @@
       <c r="G169" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H169" s="79"/>
-      <c r="I169" s="79"/>
+      <c r="H169" s="80"/>
+      <c r="I169" s="80"/>
       <c r="J169" s="57">
         <v>14</v>
       </c>
@@ -39942,8 +39942,8 @@
       <c r="G170" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H170" s="79"/>
-      <c r="I170" s="79"/>
+      <c r="H170" s="80"/>
+      <c r="I170" s="80"/>
       <c r="J170" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -40109,8 +40109,8 @@
       <c r="G171" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H171" s="79"/>
-      <c r="I171" s="79"/>
+      <c r="H171" s="80"/>
+      <c r="I171" s="80"/>
       <c r="J171" s="57">
         <v>0.02</v>
       </c>
@@ -40276,8 +40276,8 @@
       <c r="G172" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H172" s="79"/>
-      <c r="I172" s="79"/>
+      <c r="H172" s="80"/>
+      <c r="I172" s="80"/>
       <c r="J172" s="57">
         <v>0.02</v>
       </c>
@@ -40443,8 +40443,8 @@
       <c r="G173" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H173" s="79"/>
-      <c r="I173" s="79"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
       <c r="J173" s="57">
         <v>0.05</v>
       </c>
@@ -40610,8 +40610,8 @@
       <c r="G174" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H174" s="79"/>
-      <c r="I174" s="79"/>
+      <c r="H174" s="80"/>
+      <c r="I174" s="80"/>
       <c r="J174" s="57">
         <v>0.3</v>
       </c>
@@ -40777,8 +40777,8 @@
       <c r="G175" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H175" s="79"/>
-      <c r="I175" s="79"/>
+      <c r="H175" s="80"/>
+      <c r="I175" s="80"/>
       <c r="J175" s="57">
         <v>0.04</v>
       </c>
@@ -40944,8 +40944,8 @@
       <c r="G176" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H176" s="79"/>
-      <c r="I176" s="79"/>
+      <c r="H176" s="80"/>
+      <c r="I176" s="80"/>
       <c r="J176" s="57">
         <v>0.05</v>
       </c>
@@ -41111,8 +41111,8 @@
       <c r="G177" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H177" s="79"/>
-      <c r="I177" s="79"/>
+      <c r="H177" s="80"/>
+      <c r="I177" s="80"/>
       <c r="J177" s="57">
         <v>0.09</v>
       </c>
@@ -41278,8 +41278,8 @@
       <c r="G178" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H178" s="79"/>
-      <c r="I178" s="79"/>
+      <c r="H178" s="80"/>
+      <c r="I178" s="80"/>
       <c r="J178" s="57">
         <v>0.26</v>
       </c>
@@ -41445,8 +41445,8 @@
       <c r="G179" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H179" s="79"/>
-      <c r="I179" s="79"/>
+      <c r="H179" s="80"/>
+      <c r="I179" s="80"/>
       <c r="J179" s="57">
         <v>2.1</v>
       </c>
@@ -41612,8 +41612,8 @@
       <c r="G180" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H180" s="79"/>
-      <c r="I180" s="79"/>
+      <c r="H180" s="80"/>
+      <c r="I180" s="80"/>
       <c r="J180" s="57">
         <v>0.23</v>
       </c>
@@ -41779,8 +41779,8 @@
       <c r="G181" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H181" s="79"/>
-      <c r="I181" s="79"/>
+      <c r="H181" s="80"/>
+      <c r="I181" s="80"/>
       <c r="J181" s="57">
         <v>0.17</v>
       </c>
@@ -41946,8 +41946,8 @@
       <c r="G182" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H182" s="79"/>
-      <c r="I182" s="79"/>
+      <c r="H182" s="80"/>
+      <c r="I182" s="80"/>
       <c r="J182" s="57">
         <v>0.24</v>
       </c>
@@ -42113,8 +42113,8 @@
       <c r="G183" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H183" s="79"/>
-      <c r="I183" s="79"/>
+      <c r="H183" s="80"/>
+      <c r="I183" s="80"/>
       <c r="J183" s="57">
         <v>0.24</v>
       </c>
@@ -42280,8 +42280,8 @@
       <c r="G184" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H184" s="79"/>
-      <c r="I184" s="79"/>
+      <c r="H184" s="80"/>
+      <c r="I184" s="80"/>
       <c r="J184" s="57">
         <v>0.48</v>
       </c>
@@ -42447,8 +42447,8 @@
       <c r="G185" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H185" s="79"/>
-      <c r="I185" s="79"/>
+      <c r="H185" s="80"/>
+      <c r="I185" s="80"/>
       <c r="J185" s="57">
         <v>0.27</v>
       </c>
@@ -42614,8 +42614,8 @@
       <c r="G186" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H186" s="79"/>
-      <c r="I186" s="79"/>
+      <c r="H186" s="80"/>
+      <c r="I186" s="80"/>
       <c r="J186" s="57">
         <v>0.68</v>
       </c>
@@ -42781,8 +42781,8 @@
       <c r="G187" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H187" s="79"/>
-      <c r="I187" s="79"/>
+      <c r="H187" s="80"/>
+      <c r="I187" s="80"/>
       <c r="J187" s="57">
         <v>2.5</v>
       </c>
@@ -42948,8 +42948,8 @@
       <c r="G188" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H188" s="79"/>
-      <c r="I188" s="79"/>
+      <c r="H188" s="80"/>
+      <c r="I188" s="80"/>
       <c r="J188" s="57">
         <v>0.18</v>
       </c>
@@ -43115,8 +43115,8 @@
       <c r="G189" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H189" s="79"/>
-      <c r="I189" s="79"/>
+      <c r="H189" s="80"/>
+      <c r="I189" s="80"/>
       <c r="J189" s="57">
         <v>0.08</v>
       </c>
@@ -43282,8 +43282,8 @@
       <c r="G190" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H190" s="79"/>
-      <c r="I190" s="79"/>
+      <c r="H190" s="80"/>
+      <c r="I190" s="80"/>
       <c r="J190" s="57">
         <v>0.3</v>
       </c>
@@ -43449,8 +43449,8 @@
       <c r="G191" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H191" s="79"/>
-      <c r="I191" s="79"/>
+      <c r="H191" s="80"/>
+      <c r="I191" s="80"/>
       <c r="J191" s="57">
         <v>0.75</v>
       </c>
@@ -43616,8 +43616,8 @@
       <c r="G192" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H192" s="79"/>
-      <c r="I192" s="79"/>
+      <c r="H192" s="80"/>
+      <c r="I192" s="80"/>
       <c r="J192" s="57">
         <v>0.1</v>
       </c>
@@ -43783,8 +43783,8 @@
       <c r="G193" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H193" s="79"/>
-      <c r="I193" s="79"/>
+      <c r="H193" s="80"/>
+      <c r="I193" s="80"/>
       <c r="J193" s="57">
         <v>0.06</v>
       </c>
@@ -43950,8 +43950,8 @@
       <c r="G194" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H194" s="79"/>
-      <c r="I194" s="79"/>
+      <c r="H194" s="80"/>
+      <c r="I194" s="80"/>
       <c r="J194" s="57">
         <v>0.1</v>
       </c>
@@ -44117,8 +44117,8 @@
       <c r="G195" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H195" s="79"/>
-      <c r="I195" s="79"/>
+      <c r="H195" s="80"/>
+      <c r="I195" s="80"/>
       <c r="J195" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -44284,8 +44284,8 @@
       <c r="G196" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H196" s="79"/>
-      <c r="I196" s="79"/>
+      <c r="H196" s="80"/>
+      <c r="I196" s="80"/>
       <c r="J196" s="57">
         <v>0.34</v>
       </c>
@@ -44451,8 +44451,8 @@
       <c r="G197" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H197" s="79"/>
-      <c r="I197" s="79"/>
+      <c r="H197" s="80"/>
+      <c r="I197" s="80"/>
       <c r="J197" s="57">
         <v>0.48</v>
       </c>
@@ -44618,8 +44618,8 @@
       <c r="G198" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H198" s="79"/>
-      <c r="I198" s="79"/>
+      <c r="H198" s="80"/>
+      <c r="I198" s="80"/>
       <c r="J198" s="57">
         <v>0.21</v>
       </c>
@@ -44785,8 +44785,8 @@
       <c r="G199" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H199" s="79"/>
-      <c r="I199" s="79"/>
+      <c r="H199" s="80"/>
+      <c r="I199" s="80"/>
       <c r="J199" s="57">
         <v>0.06</v>
       </c>
@@ -44952,8 +44952,8 @@
       <c r="G200" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H200" s="79"/>
-      <c r="I200" s="79"/>
+      <c r="H200" s="80"/>
+      <c r="I200" s="80"/>
       <c r="J200" s="57">
         <v>0.4</v>
       </c>
@@ -45119,8 +45119,8 @@
       <c r="G201" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H201" s="79"/>
-      <c r="I201" s="79"/>
+      <c r="H201" s="80"/>
+      <c r="I201" s="80"/>
       <c r="J201" s="57">
         <v>0.06</v>
       </c>
@@ -45286,8 +45286,8 @@
       <c r="G202" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H202" s="79"/>
-      <c r="I202" s="79"/>
+      <c r="H202" s="80"/>
+      <c r="I202" s="80"/>
       <c r="J202" s="57">
         <v>23</v>
       </c>
@@ -45453,8 +45453,8 @@
       <c r="G203" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H203" s="79"/>
-      <c r="I203" s="79"/>
+      <c r="H203" s="80"/>
+      <c r="I203" s="80"/>
       <c r="J203" s="57">
         <v>1.4</v>
       </c>
@@ -45620,8 +45620,8 @@
       <c r="G204" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H204" s="79"/>
-      <c r="I204" s="79"/>
+      <c r="H204" s="80"/>
+      <c r="I204" s="80"/>
       <c r="J204" s="57">
         <v>0.02</v>
       </c>
@@ -45787,8 +45787,8 @@
       <c r="G205" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H205" s="79"/>
-      <c r="I205" s="79"/>
+      <c r="H205" s="80"/>
+      <c r="I205" s="80"/>
       <c r="J205" s="57">
         <v>5.32</v>
       </c>
@@ -45954,8 +45954,8 @@
       <c r="G206" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H206" s="79"/>
-      <c r="I206" s="79"/>
+      <c r="H206" s="80"/>
+      <c r="I206" s="80"/>
       <c r="J206" s="57">
         <v>0.9</v>
       </c>
@@ -46121,8 +46121,8 @@
       <c r="G207" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H207" s="79"/>
-      <c r="I207" s="79"/>
+      <c r="H207" s="80"/>
+      <c r="I207" s="80"/>
       <c r="J207" s="57">
         <v>2.25</v>
       </c>
@@ -46288,8 +46288,8 @@
       <c r="G208" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H208" s="79"/>
-      <c r="I208" s="79"/>
+      <c r="H208" s="80"/>
+      <c r="I208" s="80"/>
       <c r="J208" s="57">
         <v>0.2</v>
       </c>
@@ -46455,8 +46455,8 @@
       <c r="G209" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H209" s="79"/>
-      <c r="I209" s="79"/>
+      <c r="H209" s="80"/>
+      <c r="I209" s="80"/>
       <c r="J209" s="57">
         <v>0.12</v>
       </c>
@@ -46622,8 +46622,8 @@
       <c r="G210" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H210" s="79"/>
-      <c r="I210" s="79"/>
+      <c r="H210" s="80"/>
+      <c r="I210" s="80"/>
       <c r="J210" s="57">
         <v>0.25</v>
       </c>
@@ -46789,8 +46789,8 @@
       <c r="G211" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H211" s="79"/>
-      <c r="I211" s="79"/>
+      <c r="H211" s="80"/>
+      <c r="I211" s="80"/>
       <c r="J211" s="57">
         <v>0.01</v>
       </c>
@@ -46956,8 +46956,8 @@
       <c r="G212" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H212" s="79"/>
-      <c r="I212" s="79"/>
+      <c r="H212" s="80"/>
+      <c r="I212" s="80"/>
       <c r="J212" s="57">
         <v>0.32</v>
       </c>
@@ -47123,8 +47123,8 @@
       <c r="G213" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H213" s="79"/>
-      <c r="I213" s="79"/>
+      <c r="H213" s="80"/>
+      <c r="I213" s="80"/>
       <c r="J213" s="57">
         <v>0.03</v>
       </c>
@@ -47290,8 +47290,8 @@
       <c r="G214" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H214" s="79"/>
-      <c r="I214" s="79"/>
+      <c r="H214" s="80"/>
+      <c r="I214" s="80"/>
       <c r="J214" s="57">
         <v>0.4</v>
       </c>
@@ -47457,8 +47457,8 @@
       <c r="G215" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H215" s="79"/>
-      <c r="I215" s="79"/>
+      <c r="H215" s="80"/>
+      <c r="I215" s="80"/>
       <c r="J215" s="57">
         <v>3.5</v>
       </c>
@@ -47624,8 +47624,8 @@
       <c r="G216" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H216" s="79"/>
-      <c r="I216" s="79"/>
+      <c r="H216" s="80"/>
+      <c r="I216" s="80"/>
       <c r="J216" s="57">
         <v>2.8</v>
       </c>
@@ -47791,8 +47791,8 @@
       <c r="G217" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H217" s="79"/>
-      <c r="I217" s="79"/>
+      <c r="H217" s="80"/>
+      <c r="I217" s="80"/>
       <c r="J217" s="57">
         <v>0.72</v>
       </c>
@@ -47958,8 +47958,8 @@
       <c r="G218" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H218" s="79"/>
-      <c r="I218" s="79"/>
+      <c r="H218" s="80"/>
+      <c r="I218" s="80"/>
       <c r="J218" s="57">
         <v>0.03</v>
       </c>
@@ -48125,8 +48125,8 @@
       <c r="G219" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H219" s="79"/>
-      <c r="I219" s="79"/>
+      <c r="H219" s="80"/>
+      <c r="I219" s="80"/>
       <c r="J219" s="57">
         <v>0.2</v>
       </c>
@@ -48292,8 +48292,8 @@
       <c r="G220" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H220" s="79"/>
-      <c r="I220" s="79"/>
+      <c r="H220" s="80"/>
+      <c r="I220" s="80"/>
       <c r="J220" s="57">
         <v>0.44</v>
       </c>
@@ -48459,8 +48459,8 @@
       <c r="G221" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H221" s="79"/>
-      <c r="I221" s="79"/>
+      <c r="H221" s="80"/>
+      <c r="I221" s="80"/>
       <c r="J221" s="57">
         <v>7</v>
       </c>
@@ -48626,8 +48626,8 @@
       <c r="G222" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H222" s="79"/>
-      <c r="I222" s="79"/>
+      <c r="H222" s="80"/>
+      <c r="I222" s="80"/>
       <c r="J222" s="57">
         <v>2.34</v>
       </c>
@@ -48793,8 +48793,8 @@
       <c r="G223" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H223" s="79"/>
-      <c r="I223" s="79"/>
+      <c r="H223" s="80"/>
+      <c r="I223" s="80"/>
       <c r="J223" s="57">
         <v>6</v>
       </c>
@@ -48960,8 +48960,8 @@
       <c r="G224" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H224" s="79"/>
-      <c r="I224" s="79"/>
+      <c r="H224" s="80"/>
+      <c r="I224" s="80"/>
       <c r="J224" s="57">
         <v>8</v>
       </c>
@@ -49127,8 +49127,8 @@
       <c r="G225" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H225" s="79"/>
-      <c r="I225" s="79"/>
+      <c r="H225" s="80"/>
+      <c r="I225" s="80"/>
       <c r="J225" s="57">
         <v>0.08</v>
       </c>
@@ -49294,8 +49294,8 @@
       <c r="G226" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H226" s="79"/>
-      <c r="I226" s="79"/>
+      <c r="H226" s="80"/>
+      <c r="I226" s="80"/>
       <c r="J226" s="57">
         <v>1.3</v>
       </c>
@@ -49461,8 +49461,8 @@
       <c r="G227" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H227" s="79"/>
-      <c r="I227" s="79"/>
+      <c r="H227" s="80"/>
+      <c r="I227" s="80"/>
       <c r="J227" s="57">
         <v>2.5</v>
       </c>
@@ -49628,8 +49628,8 @@
       <c r="G228" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H228" s="79"/>
-      <c r="I228" s="79"/>
+      <c r="H228" s="80"/>
+      <c r="I228" s="80"/>
       <c r="J228" s="57">
         <v>42</v>
       </c>
@@ -49795,8 +49795,8 @@
       <c r="G229" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H229" s="79"/>
-      <c r="I229" s="79"/>
+      <c r="H229" s="80"/>
+      <c r="I229" s="80"/>
       <c r="J229" s="57">
         <v>1.1000000000000001</v>
       </c>
@@ -49962,8 +49962,8 @@
       <c r="G230" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H230" s="79"/>
-      <c r="I230" s="79"/>
+      <c r="H230" s="80"/>
+      <c r="I230" s="80"/>
       <c r="J230" s="57">
         <v>1.6</v>
       </c>
@@ -50129,8 +50129,8 @@
       <c r="G231" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H231" s="79"/>
-      <c r="I231" s="79"/>
+      <c r="H231" s="80"/>
+      <c r="I231" s="80"/>
       <c r="J231" s="57">
         <v>60</v>
       </c>
@@ -50296,8 +50296,8 @@
       <c r="G232" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H232" s="79"/>
-      <c r="I232" s="79"/>
+      <c r="H232" s="80"/>
+      <c r="I232" s="80"/>
       <c r="J232" s="57">
         <v>2</v>
       </c>
@@ -50463,8 +50463,8 @@
       <c r="G233" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H233" s="79"/>
-      <c r="I233" s="79"/>
+      <c r="H233" s="80"/>
+      <c r="I233" s="80"/>
       <c r="J233" s="57">
         <v>1</v>
       </c>
@@ -50630,8 +50630,8 @@
       <c r="G234" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H234" s="79"/>
-      <c r="I234" s="79"/>
+      <c r="H234" s="80"/>
+      <c r="I234" s="80"/>
       <c r="J234" s="57">
         <v>0.24</v>
       </c>
@@ -50797,8 +50797,8 @@
       <c r="G235" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H235" s="79"/>
-      <c r="I235" s="79"/>
+      <c r="H235" s="80"/>
+      <c r="I235" s="80"/>
       <c r="J235" s="57">
         <v>1.35</v>
       </c>
@@ -50964,8 +50964,8 @@
       <c r="G236" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H236" s="79"/>
-      <c r="I236" s="79"/>
+      <c r="H236" s="80"/>
+      <c r="I236" s="80"/>
       <c r="J236" s="57">
         <v>0.3</v>
       </c>
@@ -51131,8 +51131,8 @@
       <c r="G237" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H237" s="79"/>
-      <c r="I237" s="79"/>
+      <c r="H237" s="80"/>
+      <c r="I237" s="80"/>
       <c r="J237" s="57">
         <v>1.1200000000000001</v>
       </c>
@@ -51298,8 +51298,8 @@
       <c r="G238" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H238" s="79"/>
-      <c r="I238" s="79"/>
+      <c r="H238" s="80"/>
+      <c r="I238" s="80"/>
       <c r="J238" s="57">
         <v>0.54</v>
       </c>
@@ -51465,8 +51465,8 @@
       <c r="G239" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H239" s="79"/>
-      <c r="I239" s="79"/>
+      <c r="H239" s="80"/>
+      <c r="I239" s="80"/>
       <c r="J239" s="57">
         <v>0.28000000000000003</v>
       </c>
@@ -51632,8 +51632,8 @@
       <c r="G240" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H240" s="79"/>
-      <c r="I240" s="79"/>
+      <c r="H240" s="80"/>
+      <c r="I240" s="80"/>
       <c r="J240" s="57">
         <v>1.3</v>
       </c>
@@ -51799,8 +51799,8 @@
       <c r="G241" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H241" s="79"/>
-      <c r="I241" s="79"/>
+      <c r="H241" s="80"/>
+      <c r="I241" s="80"/>
       <c r="J241" s="57">
         <v>0.06</v>
       </c>
@@ -51966,8 +51966,8 @@
       <c r="G242" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H242" s="79"/>
-      <c r="I242" s="79"/>
+      <c r="H242" s="80"/>
+      <c r="I242" s="80"/>
       <c r="J242" s="57">
         <v>0.06</v>
       </c>
@@ -52133,8 +52133,8 @@
       <c r="G243" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H243" s="79"/>
-      <c r="I243" s="79"/>
+      <c r="H243" s="80"/>
+      <c r="I243" s="80"/>
       <c r="J243" s="57">
         <v>0.52</v>
       </c>
@@ -52300,8 +52300,8 @@
       <c r="G244" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H244" s="79"/>
-      <c r="I244" s="79"/>
+      <c r="H244" s="80"/>
+      <c r="I244" s="80"/>
       <c r="J244" s="57">
         <v>0.05</v>
       </c>
@@ -52467,8 +52467,8 @@
       <c r="G245" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H245" s="79"/>
-      <c r="I245" s="79"/>
+      <c r="H245" s="80"/>
+      <c r="I245" s="80"/>
       <c r="J245" s="57">
         <v>2</v>
       </c>
@@ -52634,8 +52634,8 @@
       <c r="G246" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H246" s="79"/>
-      <c r="I246" s="79"/>
+      <c r="H246" s="80"/>
+      <c r="I246" s="80"/>
       <c r="J246" s="57">
         <v>1</v>
       </c>
@@ -52801,8 +52801,8 @@
       <c r="G247" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H247" s="79"/>
-      <c r="I247" s="79"/>
+      <c r="H247" s="80"/>
+      <c r="I247" s="80"/>
       <c r="J247" s="57">
         <v>0.05</v>
       </c>
@@ -52968,8 +52968,8 @@
       <c r="G248" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H248" s="79"/>
-      <c r="I248" s="79"/>
+      <c r="H248" s="80"/>
+      <c r="I248" s="80"/>
       <c r="J248" s="57">
         <v>0.1</v>
       </c>
@@ -53135,8 +53135,8 @@
       <c r="G249" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H249" s="79"/>
-      <c r="I249" s="79"/>
+      <c r="H249" s="80"/>
+      <c r="I249" s="80"/>
       <c r="J249" s="57">
         <v>0.03</v>
       </c>
@@ -53175,8 +53175,8 @@
       <c r="G250" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H250" s="79"/>
-      <c r="I250" s="79"/>
+      <c r="H250" s="80"/>
+      <c r="I250" s="80"/>
       <c r="J250" s="57">
         <v>0.05</v>
       </c>
@@ -53215,8 +53215,8 @@
       <c r="G251" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H251" s="79"/>
-      <c r="I251" s="79"/>
+      <c r="H251" s="80"/>
+      <c r="I251" s="80"/>
       <c r="J251" s="57">
         <v>0.6</v>
       </c>
@@ -53255,8 +53255,8 @@
       <c r="G252" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H252" s="79"/>
-      <c r="I252" s="79"/>
+      <c r="H252" s="80"/>
+      <c r="I252" s="80"/>
       <c r="J252" s="57">
         <v>0.16</v>
       </c>
@@ -53295,8 +53295,8 @@
       <c r="G253" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H253" s="79"/>
-      <c r="I253" s="79"/>
+      <c r="H253" s="80"/>
+      <c r="I253" s="80"/>
       <c r="J253" s="57">
         <v>1.5</v>
       </c>
@@ -53335,8 +53335,8 @@
       <c r="G254" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H254" s="79"/>
-      <c r="I254" s="79"/>
+      <c r="H254" s="80"/>
+      <c r="I254" s="80"/>
       <c r="J254" s="57">
         <v>1</v>
       </c>
@@ -53375,8 +53375,8 @@
       <c r="G255" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H255" s="79"/>
-      <c r="I255" s="79"/>
+      <c r="H255" s="80"/>
+      <c r="I255" s="80"/>
       <c r="J255" s="57">
         <v>0.04</v>
       </c>
@@ -53415,8 +53415,8 @@
       <c r="G256" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H256" s="79"/>
-      <c r="I256" s="79"/>
+      <c r="H256" s="80"/>
+      <c r="I256" s="80"/>
       <c r="J256" s="57">
         <v>0.09</v>
       </c>
@@ -53455,8 +53455,8 @@
       <c r="G257" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H257" s="79"/>
-      <c r="I257" s="79"/>
+      <c r="H257" s="80"/>
+      <c r="I257" s="80"/>
       <c r="J257" s="57">
         <v>0.12</v>
       </c>
@@ -53495,8 +53495,8 @@
       <c r="G258" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H258" s="79"/>
-      <c r="I258" s="79"/>
+      <c r="H258" s="80"/>
+      <c r="I258" s="80"/>
       <c r="J258" s="57">
         <v>0.04</v>
       </c>
@@ -53535,8 +53535,8 @@
       <c r="G259" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H259" s="79"/>
-      <c r="I259" s="79"/>
+      <c r="H259" s="80"/>
+      <c r="I259" s="80"/>
       <c r="J259" s="57">
         <v>25</v>
       </c>
@@ -53575,8 +53575,8 @@
       <c r="G260" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H260" s="79"/>
-      <c r="I260" s="79"/>
+      <c r="H260" s="80"/>
+      <c r="I260" s="80"/>
       <c r="J260" s="57">
         <v>12</v>
       </c>
@@ -53615,8 +53615,8 @@
       <c r="G261" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H261" s="79"/>
-      <c r="I261" s="79"/>
+      <c r="H261" s="80"/>
+      <c r="I261" s="80"/>
       <c r="J261" s="57">
         <v>5.5</v>
       </c>
@@ -53655,8 +53655,8 @@
       <c r="G262" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H262" s="79"/>
-      <c r="I262" s="79"/>
+      <c r="H262" s="80"/>
+      <c r="I262" s="80"/>
       <c r="J262" s="57">
         <v>0.4</v>
       </c>
@@ -53695,8 +53695,8 @@
       <c r="G263" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H263" s="79"/>
-      <c r="I263" s="79"/>
+      <c r="H263" s="80"/>
+      <c r="I263" s="80"/>
       <c r="J263" s="57">
         <v>0.04</v>
       </c>
@@ -53735,8 +53735,8 @@
       <c r="G264" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H264" s="79"/>
-      <c r="I264" s="79"/>
+      <c r="H264" s="80"/>
+      <c r="I264" s="80"/>
       <c r="J264" s="57">
         <v>28</v>
       </c>
@@ -61747,10 +61747,10 @@
       <c r="G464" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H464" s="79">
+      <c r="H464" s="80">
         <v>1</v>
       </c>
-      <c r="I464" s="79" t="s">
+      <c r="I464" s="80" t="s">
         <v>1518</v>
       </c>
       <c r="J464" s="57">
@@ -61791,8 +61791,8 @@
       <c r="G465" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H465" s="79"/>
-      <c r="I465" s="79"/>
+      <c r="H465" s="80"/>
+      <c r="I465" s="80"/>
       <c r="J465" s="57">
         <v>0.36</v>
       </c>
@@ -61831,8 +61831,8 @@
       <c r="G466" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H466" s="79"/>
-      <c r="I466" s="79"/>
+      <c r="H466" s="80"/>
+      <c r="I466" s="80"/>
       <c r="J466" s="57">
         <v>0.35</v>
       </c>
@@ -61871,8 +61871,8 @@
       <c r="G467" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H467" s="79"/>
-      <c r="I467" s="79"/>
+      <c r="H467" s="80"/>
+      <c r="I467" s="80"/>
       <c r="J467" s="57">
         <v>0.34</v>
       </c>
@@ -61911,8 +61911,8 @@
       <c r="G468" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H468" s="79"/>
-      <c r="I468" s="79"/>
+      <c r="H468" s="80"/>
+      <c r="I468" s="80"/>
       <c r="J468" s="57">
         <v>2.29</v>
       </c>
@@ -61951,8 +61951,8 @@
       <c r="G469" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H469" s="79"/>
-      <c r="I469" s="79"/>
+      <c r="H469" s="80"/>
+      <c r="I469" s="80"/>
       <c r="J469" s="57">
         <v>1.28</v>
       </c>
@@ -61991,8 +61991,8 @@
       <c r="G470" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H470" s="79"/>
-      <c r="I470" s="79"/>
+      <c r="H470" s="80"/>
+      <c r="I470" s="80"/>
       <c r="J470" s="57">
         <v>2.83</v>
       </c>
@@ -62031,8 +62031,8 @@
       <c r="G471" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H471" s="79"/>
-      <c r="I471" s="79"/>
+      <c r="H471" s="80"/>
+      <c r="I471" s="80"/>
       <c r="J471" s="57">
         <v>19.46</v>
       </c>
@@ -62071,8 +62071,8 @@
       <c r="G472" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H472" s="79"/>
-      <c r="I472" s="79"/>
+      <c r="H472" s="80"/>
+      <c r="I472" s="80"/>
       <c r="J472" s="57">
         <v>0.09</v>
       </c>
@@ -62111,8 +62111,8 @@
       <c r="G473" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H473" s="79"/>
-      <c r="I473" s="79"/>
+      <c r="H473" s="80"/>
+      <c r="I473" s="80"/>
       <c r="J473" s="57">
         <v>11.14</v>
       </c>
@@ -62151,8 +62151,8 @@
       <c r="G474" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H474" s="79"/>
-      <c r="I474" s="79"/>
+      <c r="H474" s="80"/>
+      <c r="I474" s="80"/>
       <c r="J474" s="57">
         <v>4.04</v>
       </c>
@@ -62191,8 +62191,8 @@
       <c r="G475" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H475" s="79"/>
-      <c r="I475" s="79"/>
+      <c r="H475" s="80"/>
+      <c r="I475" s="80"/>
       <c r="J475" s="57">
         <v>0.24</v>
       </c>
@@ -62231,8 +62231,8 @@
       <c r="G476" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H476" s="79"/>
-      <c r="I476" s="79"/>
+      <c r="H476" s="80"/>
+      <c r="I476" s="80"/>
       <c r="J476" s="57">
         <v>0.36</v>
       </c>
@@ -62271,8 +62271,8 @@
       <c r="G477" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H477" s="79"/>
-      <c r="I477" s="79"/>
+      <c r="H477" s="80"/>
+      <c r="I477" s="80"/>
       <c r="J477" s="57">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -62311,8 +62311,8 @@
       <c r="G478" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H478" s="79"/>
-      <c r="I478" s="79"/>
+      <c r="H478" s="80"/>
+      <c r="I478" s="80"/>
       <c r="J478" s="57">
         <v>0.11</v>
       </c>
@@ -62351,8 +62351,8 @@
       <c r="G479" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H479" s="79"/>
-      <c r="I479" s="79"/>
+      <c r="H479" s="80"/>
+      <c r="I479" s="80"/>
       <c r="J479" s="57">
         <v>0.14000000000000001</v>
       </c>
@@ -62391,8 +62391,8 @@
       <c r="G480" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H480" s="79"/>
-      <c r="I480" s="79"/>
+      <c r="H480" s="80"/>
+      <c r="I480" s="80"/>
       <c r="J480" s="57">
         <v>0.39</v>
       </c>
@@ -62431,8 +62431,8 @@
       <c r="G481" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H481" s="79"/>
-      <c r="I481" s="79"/>
+      <c r="H481" s="80"/>
+      <c r="I481" s="80"/>
       <c r="J481" s="57">
         <v>0.17</v>
       </c>
@@ -62471,8 +62471,8 @@
       <c r="G482" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H482" s="79"/>
-      <c r="I482" s="79"/>
+      <c r="H482" s="80"/>
+      <c r="I482" s="80"/>
       <c r="J482" s="57">
         <v>0.39</v>
       </c>
@@ -62511,8 +62511,8 @@
       <c r="G483" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H483" s="79"/>
-      <c r="I483" s="79"/>
+      <c r="H483" s="80"/>
+      <c r="I483" s="80"/>
       <c r="J483" s="57">
         <v>0.28999999999999998</v>
       </c>
@@ -62551,8 +62551,8 @@
       <c r="G484" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H484" s="79"/>
-      <c r="I484" s="79"/>
+      <c r="H484" s="80"/>
+      <c r="I484" s="80"/>
       <c r="J484" s="57">
         <v>0.49</v>
       </c>
@@ -62591,8 +62591,8 @@
       <c r="G485" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H485" s="79"/>
-      <c r="I485" s="79"/>
+      <c r="H485" s="80"/>
+      <c r="I485" s="80"/>
       <c r="J485" s="57">
         <v>0.41</v>
       </c>
@@ -62631,8 +62631,8 @@
       <c r="G486" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H486" s="79"/>
-      <c r="I486" s="79"/>
+      <c r="H486" s="80"/>
+      <c r="I486" s="80"/>
       <c r="J486" s="57">
         <v>0.39</v>
       </c>
@@ -62671,8 +62671,8 @@
       <c r="G487" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H487" s="79"/>
-      <c r="I487" s="79"/>
+      <c r="H487" s="80"/>
+      <c r="I487" s="80"/>
       <c r="J487" s="57">
         <v>0.01</v>
       </c>
@@ -62711,8 +62711,8 @@
       <c r="G488" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H488" s="79"/>
-      <c r="I488" s="79"/>
+      <c r="H488" s="80"/>
+      <c r="I488" s="80"/>
       <c r="J488" s="57">
         <v>0.01</v>
       </c>
@@ -62751,8 +62751,8 @@
       <c r="G489" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H489" s="79"/>
-      <c r="I489" s="79"/>
+      <c r="H489" s="80"/>
+      <c r="I489" s="80"/>
       <c r="J489" s="57">
         <v>0.19</v>
       </c>
@@ -62791,8 +62791,8 @@
       <c r="G490" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H490" s="79"/>
-      <c r="I490" s="79"/>
+      <c r="H490" s="80"/>
+      <c r="I490" s="80"/>
       <c r="J490" s="57">
         <v>0.09</v>
       </c>
@@ -62831,8 +62831,8 @@
       <c r="G491" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H491" s="79"/>
-      <c r="I491" s="79"/>
+      <c r="H491" s="80"/>
+      <c r="I491" s="80"/>
       <c r="J491" s="57">
         <v>8.11</v>
       </c>
@@ -62871,8 +62871,8 @@
       <c r="G492" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="H492" s="79"/>
-      <c r="I492" s="79"/>
+      <c r="H492" s="80"/>
+      <c r="I492" s="80"/>
       <c r="J492" s="57">
         <v>0.11</v>
       </c>
@@ -62911,8 +62911,8 @@
       <c r="G493" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H493" s="79"/>
-      <c r="I493" s="79"/>
+      <c r="H493" s="80"/>
+      <c r="I493" s="80"/>
       <c r="J493" s="57">
         <v>0.13</v>
       </c>
@@ -62951,8 +62951,8 @@
       <c r="G494" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H494" s="79"/>
-      <c r="I494" s="79"/>
+      <c r="H494" s="80"/>
+      <c r="I494" s="80"/>
       <c r="J494" s="57">
         <v>0.49</v>
       </c>
@@ -62991,8 +62991,8 @@
       <c r="G495" s="56" t="s">
         <v>817</v>
       </c>
-      <c r="H495" s="79"/>
-      <c r="I495" s="79"/>
+      <c r="H495" s="80"/>
+      <c r="I495" s="80"/>
       <c r="J495" s="57">
         <v>1.82</v>
       </c>
@@ -65293,30 +65293,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:H27"/>
-    <mergeCell ref="I9:I27"/>
-    <mergeCell ref="H28:H46"/>
-    <mergeCell ref="I28:I46"/>
-    <mergeCell ref="H47:H62"/>
-    <mergeCell ref="I47:I62"/>
-    <mergeCell ref="H63:H75"/>
-    <mergeCell ref="I63:I75"/>
-    <mergeCell ref="H76:H90"/>
-    <mergeCell ref="I76:I90"/>
-    <mergeCell ref="H91:H110"/>
-    <mergeCell ref="I91:I110"/>
-    <mergeCell ref="H111:H127"/>
-    <mergeCell ref="I111:I127"/>
-    <mergeCell ref="H128:H264"/>
-    <mergeCell ref="I128:I264"/>
-    <mergeCell ref="H265:H291"/>
-    <mergeCell ref="I265:I291"/>
-    <mergeCell ref="H292:H448"/>
-    <mergeCell ref="I292:I448"/>
-    <mergeCell ref="H449:H463"/>
-    <mergeCell ref="I449:I463"/>
     <mergeCell ref="H506:H508"/>
     <mergeCell ref="I506:I508"/>
     <mergeCell ref="H511:H551"/>
@@ -65327,6 +65303,30 @@
     <mergeCell ref="I500:I502"/>
     <mergeCell ref="H503:H505"/>
     <mergeCell ref="I503:I505"/>
+    <mergeCell ref="H265:H291"/>
+    <mergeCell ref="I265:I291"/>
+    <mergeCell ref="H292:H448"/>
+    <mergeCell ref="I292:I448"/>
+    <mergeCell ref="H449:H463"/>
+    <mergeCell ref="I449:I463"/>
+    <mergeCell ref="H91:H110"/>
+    <mergeCell ref="I91:I110"/>
+    <mergeCell ref="H111:H127"/>
+    <mergeCell ref="I111:I127"/>
+    <mergeCell ref="H128:H264"/>
+    <mergeCell ref="I128:I264"/>
+    <mergeCell ref="H47:H62"/>
+    <mergeCell ref="I47:I62"/>
+    <mergeCell ref="H63:H75"/>
+    <mergeCell ref="I63:I75"/>
+    <mergeCell ref="H76:H90"/>
+    <mergeCell ref="I76:I90"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:H27"/>
+    <mergeCell ref="I9:I27"/>
+    <mergeCell ref="H28:H46"/>
+    <mergeCell ref="I28:I46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O506" r:id="rId1" xr:uid="{3507F328-EB9F-4719-BF2C-5B53C15E8C9C}"/>
